--- a/data_raw/Summary_metadata/CH4_isotope_literature_data.xlsx
+++ b/data_raw/Summary_metadata/CH4_isotope_literature_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/thesis_prep/manuscripts/Origin_CH4_Oman/2019_Nothaft_et_al/data/Summary_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/thesis_prep/manuscripts/Origin_CH4_Oman/Oman_CH4_stable_isotopes/data_raw/Summary_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DDD87E-B20C-5D41-9C42-D32078477FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AD0038-26EB-B64D-B4D9-0F4012CA87C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19040" yWindow="2040" windowWidth="18800" windowHeight="19080" xr2:uid="{C497D531-2103-744A-A064-AEE7AD03DBBB}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="38380" windowHeight="20900" xr2:uid="{C497D531-2103-744A-A064-AEE7AD03DBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="194">
   <si>
     <t>ID</t>
   </si>
@@ -603,6 +603,18 @@
   </si>
   <si>
     <t>﻿Chemical and isotopic analyses of hydrocarbon-bearing fluid inclusions in olivine-rich rocks</t>
+  </si>
+  <si>
+    <t>LFE-1</t>
+  </si>
+  <si>
+    <t>Nagsasa</t>
+  </si>
+  <si>
+    <t>H2-CH4</t>
+  </si>
+  <si>
+    <t>﻿Mangatarem</t>
   </si>
 </sst>
 </file>
@@ -1679,8 +1691,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDDE192A-15F5-254E-8CBB-385FBB8693FD}" name="Table2" displayName="Table2" ref="A1:AN107" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:AN107" xr:uid="{612F5690-1326-3A47-BC2D-EAF6EA53E78C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDDE192A-15F5-254E-8CBB-385FBB8693FD}" name="Table2" displayName="Table2" ref="A1:AN111" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:AN111" xr:uid="{612F5690-1326-3A47-BC2D-EAF6EA53E78C}"/>
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{5C9EF8FC-C446-5A4C-BAAF-10B2FC3E54EF}" name="site" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{47C25D57-B03D-E747-8569-139EAEC92EA9}" name="site_2" dataDxfId="38"/>
@@ -2024,13 +2036,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACEBEA3-2C43-3A49-9E3E-95DFB4D5EABF}">
-  <dimension ref="A1:AN107"/>
+  <dimension ref="A1:AN111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="AB56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31:F41"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2042,11 +2054,11 @@
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="49.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
     <col min="14" max="14" width="19.6640625" customWidth="1"/>
     <col min="15" max="15" width="19.83203125" customWidth="1"/>
@@ -2218,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>188</v>
@@ -2233,7 +2245,7 @@
         <v>81</v>
       </c>
       <c r="N2" s="4">
-        <v>553000</v>
+        <v>130000</v>
       </c>
       <c r="O2" s="2" t="b">
         <v>1</v>
@@ -2242,8 +2254,7 @@
         <v>7</v>
       </c>
       <c r="Q2" s="4">
-        <f>0.15*10000</f>
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="R2" s="2" t="b">
         <v>1</v>
@@ -2279,10 +2290,10 @@
         <v>7</v>
       </c>
       <c r="AC2" s="2">
-        <v>-7.42</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>-129.5</v>
+        <v>-7.1</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>7</v>
@@ -2341,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>188</v>
@@ -2356,7 +2367,7 @@
         <v>81</v>
       </c>
       <c r="N3" s="4">
-        <v>548000</v>
+        <v>553000</v>
       </c>
       <c r="O3" s="2" t="b">
         <v>1</v>
@@ -2365,8 +2376,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="4">
-        <f>0.12*10000</f>
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="R3" s="2" t="b">
         <v>1</v>
@@ -2402,10 +2412,10 @@
         <v>7</v>
       </c>
       <c r="AC3" s="2">
-        <v>-6.52</v>
+        <v>-7.42</v>
       </c>
       <c r="AD3" s="2">
-        <v>-126</v>
+        <v>-129.5</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>7</v>
@@ -2440,37 +2450,37 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2011</v>
-      </c>
-      <c r="H4" s="2">
-        <v>11</v>
+        <v>119</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>7</v>
@@ -2479,7 +2489,7 @@
         <v>81</v>
       </c>
       <c r="N4" s="4">
-        <v>15000</v>
+        <v>548000</v>
       </c>
       <c r="O4" s="2" t="b">
         <v>1</v>
@@ -2487,8 +2497,8 @@
       <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="2">
-        <v>69.599999999999994</v>
+      <c r="Q4" s="4">
+        <v>1200</v>
       </c>
       <c r="R4" s="2" t="b">
         <v>1</v>
@@ -2496,20 +2506,20 @@
       <c r="S4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="2">
-        <v>15</v>
+      <c r="T4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="U4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="2">
-        <v>4.4000000000000004</v>
+      <c r="W4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>7</v>
@@ -2518,16 +2528,16 @@
         <v>7</v>
       </c>
       <c r="AA4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>7</v>
+      <c r="AC4" s="2">
+        <v>-6.52</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>-126</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>7</v>
@@ -2601,7 +2611,7 @@
         <v>81</v>
       </c>
       <c r="N5" s="4">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O5" s="2" t="b">
         <v>1</v>
@@ -2610,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="Q5" s="2">
-        <v>70.3</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="R5" s="2" t="b">
         <v>1</v>
@@ -2619,7 +2629,7 @@
         <v>7</v>
       </c>
       <c r="T5" s="2">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="U5" s="2" t="b">
         <v>1</v>
@@ -2628,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="W5" s="2">
-        <v>5.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X5" s="2" t="b">
         <v>1</v>
@@ -2723,7 +2733,7 @@
         <v>81</v>
       </c>
       <c r="N6" s="4">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="O6" s="2" t="b">
         <v>1</v>
@@ -2732,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="Q6" s="2">
-        <v>70.7</v>
+        <v>70.3</v>
       </c>
       <c r="R6" s="2" t="b">
         <v>1</v>
@@ -2741,7 +2751,7 @@
         <v>7</v>
       </c>
       <c r="T6" s="2">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="U6" s="2" t="b">
         <v>1</v>
@@ -2750,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="W6" s="2">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="X6" s="2" t="b">
         <v>1</v>
@@ -2812,7 +2822,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
@@ -2827,7 +2837,7 @@
         <v>2011</v>
       </c>
       <c r="H7" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>7</v>
@@ -2836,7 +2846,7 @@
         <v>188</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>7</v>
@@ -2845,7 +2855,7 @@
         <v>81</v>
       </c>
       <c r="N7" s="4">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O7" s="2" t="b">
         <v>1</v>
@@ -2854,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="Q7" s="2">
-        <v>9.9</v>
+        <v>70.7</v>
       </c>
       <c r="R7" s="2" t="b">
         <v>1</v>
@@ -2863,7 +2873,7 @@
         <v>7</v>
       </c>
       <c r="T7" s="2">
-        <v>8.1999999999999993</v>
+        <v>14.9</v>
       </c>
       <c r="U7" s="2" t="b">
         <v>1</v>
@@ -2871,8 +2881,8 @@
       <c r="V7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>7</v>
+      <c r="W7" s="2">
+        <v>5.8</v>
       </c>
       <c r="X7" s="2" t="b">
         <v>1</v>
@@ -2976,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="Q8" s="2">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="R8" s="2" t="b">
         <v>1</v>
@@ -2985,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="T8" s="2">
-        <v>7.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="U8" s="2" t="b">
         <v>1</v>
@@ -2993,8 +3003,8 @@
       <c r="V8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W8" s="2">
-        <v>5.7</v>
+      <c r="W8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="X8" s="2" t="b">
         <v>1</v>
@@ -3002,8 +3012,8 @@
       <c r="Y8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z8" s="2">
-        <v>8.1999999999999993</v>
+      <c r="Z8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AA8" s="2" t="b">
         <v>1</v>
@@ -3056,7 +3066,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -3071,7 +3081,7 @@
         <v>2011</v>
       </c>
       <c r="H9" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>7</v>
@@ -3080,7 +3090,7 @@
         <v>188</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>7</v>
@@ -3089,7 +3099,7 @@
         <v>81</v>
       </c>
       <c r="N9" s="4">
-        <v>56000</v>
+        <v>15000</v>
       </c>
       <c r="O9" s="2" t="b">
         <v>1</v>
@@ -3098,7 +3108,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="2">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="R9" s="2" t="b">
         <v>1</v>
@@ -3106,8 +3116,8 @@
       <c r="S9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>7</v>
+      <c r="T9" s="2">
+        <v>7.8</v>
       </c>
       <c r="U9" s="2" t="b">
         <v>1</v>
@@ -3115,8 +3125,8 @@
       <c r="V9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>7</v>
+      <c r="W9" s="2">
+        <v>5.7</v>
       </c>
       <c r="X9" s="2" t="b">
         <v>1</v>
@@ -3124,8 +3134,8 @@
       <c r="Y9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z9" s="2" t="s">
-        <v>7</v>
+      <c r="Z9" s="2">
+        <v>8.1999999999999993</v>
       </c>
       <c r="AA9" s="2" t="b">
         <v>1</v>
@@ -3211,7 +3221,7 @@
         <v>81</v>
       </c>
       <c r="N10" s="4">
-        <v>55000</v>
+        <v>56000</v>
       </c>
       <c r="O10" s="2" t="b">
         <v>1</v>
@@ -3220,7 +3230,7 @@
         <v>7</v>
       </c>
       <c r="Q10" s="2">
-        <v>11.2</v>
+        <v>10.1</v>
       </c>
       <c r="R10" s="2" t="b">
         <v>1</v>
@@ -3333,7 +3343,7 @@
         <v>81</v>
       </c>
       <c r="N11" s="4">
-        <v>63000</v>
+        <v>55000</v>
       </c>
       <c r="O11" s="2" t="b">
         <v>1</v>
@@ -3342,7 +3352,7 @@
         <v>7</v>
       </c>
       <c r="Q11" s="2">
-        <v>13.9</v>
+        <v>11.2</v>
       </c>
       <c r="R11" s="2" t="b">
         <v>1</v>
@@ -3455,7 +3465,7 @@
         <v>81</v>
       </c>
       <c r="N12" s="4">
-        <v>43000</v>
+        <v>63000</v>
       </c>
       <c r="O12" s="2" t="b">
         <v>1</v>
@@ -3464,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="Q12" s="2">
-        <v>8.1999999999999993</v>
+        <v>13.9</v>
       </c>
       <c r="R12" s="2" t="b">
         <v>1</v>
@@ -3544,7 +3554,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -3559,7 +3569,7 @@
         <v>2011</v>
       </c>
       <c r="H13" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>7</v>
@@ -3568,7 +3578,7 @@
         <v>188</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>7</v>
@@ -3577,7 +3587,7 @@
         <v>81</v>
       </c>
       <c r="N13" s="4">
-        <v>52000</v>
+        <v>43000</v>
       </c>
       <c r="O13" s="2" t="b">
         <v>1</v>
@@ -3586,7 +3596,7 @@
         <v>7</v>
       </c>
       <c r="Q13" s="2">
-        <v>84.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R13" s="2" t="b">
         <v>1</v>
@@ -3699,7 +3709,7 @@
         <v>81</v>
       </c>
       <c r="N14" s="4">
-        <v>56000</v>
+        <v>52000</v>
       </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
@@ -3708,7 +3718,7 @@
         <v>7</v>
       </c>
       <c r="Q14" s="2">
-        <v>108.9</v>
+        <v>84.8</v>
       </c>
       <c r="R14" s="2" t="b">
         <v>1</v>
@@ -3821,7 +3831,7 @@
         <v>81</v>
       </c>
       <c r="N15" s="4">
-        <v>50000</v>
+        <v>56000</v>
       </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
@@ -3830,7 +3840,7 @@
         <v>7</v>
       </c>
       <c r="Q15" s="2">
-        <v>92.3</v>
+        <v>108.9</v>
       </c>
       <c r="R15" s="2" t="b">
         <v>1</v>
@@ -3924,8 +3934,8 @@
       <c r="G16" s="2">
         <v>2011</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>33</v>
+      <c r="H16" s="2">
+        <v>27</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>7</v>
@@ -3934,7 +3944,7 @@
         <v>188</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>7</v>
@@ -3943,7 +3953,7 @@
         <v>81</v>
       </c>
       <c r="N16" s="4">
-        <v>33000</v>
+        <v>50000</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -3952,7 +3962,7 @@
         <v>7</v>
       </c>
       <c r="Q16" s="2">
-        <v>83.5</v>
+        <v>92.3</v>
       </c>
       <c r="R16" s="2" t="b">
         <v>1</v>
@@ -4065,7 +4075,7 @@
         <v>81</v>
       </c>
       <c r="N17" s="4">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="O17" s="2" t="b">
         <v>1</v>
@@ -4074,7 +4084,7 @@
         <v>7</v>
       </c>
       <c r="Q17" s="2">
-        <v>72.7</v>
+        <v>83.5</v>
       </c>
       <c r="R17" s="2" t="b">
         <v>1</v>
@@ -4169,7 +4179,7 @@
         <v>2011</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>7</v>
@@ -4187,7 +4197,7 @@
         <v>81</v>
       </c>
       <c r="N18" s="4">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="O18" s="2" t="b">
         <v>1</v>
@@ -4196,7 +4206,7 @@
         <v>7</v>
       </c>
       <c r="Q18" s="2">
-        <v>91.1</v>
+        <v>72.7</v>
       </c>
       <c r="R18" s="2" t="b">
         <v>1</v>
@@ -4309,7 +4319,7 @@
         <v>81</v>
       </c>
       <c r="N19" s="4">
-        <v>38000</v>
+        <v>26000</v>
       </c>
       <c r="O19" s="2" t="b">
         <v>1</v>
@@ -4318,7 +4328,7 @@
         <v>7</v>
       </c>
       <c r="Q19" s="2">
-        <v>52.6</v>
+        <v>91.1</v>
       </c>
       <c r="R19" s="2" t="b">
         <v>1</v>
@@ -4413,7 +4423,7 @@
         <v>2011</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>7</v>
@@ -4431,7 +4441,7 @@
         <v>81</v>
       </c>
       <c r="N20" s="4">
-        <v>42000</v>
+        <v>38000</v>
       </c>
       <c r="O20" s="2" t="b">
         <v>1</v>
@@ -4440,7 +4450,7 @@
         <v>7</v>
       </c>
       <c r="Q20" s="2">
-        <v>97.1</v>
+        <v>52.6</v>
       </c>
       <c r="R20" s="2" t="b">
         <v>1</v>
@@ -4553,7 +4563,7 @@
         <v>81</v>
       </c>
       <c r="N21" s="4">
-        <v>49000</v>
+        <v>42000</v>
       </c>
       <c r="O21" s="2" t="b">
         <v>1</v>
@@ -4562,7 +4572,7 @@
         <v>7</v>
       </c>
       <c r="Q21" s="2">
-        <v>93.4</v>
+        <v>97.1</v>
       </c>
       <c r="R21" s="2" t="b">
         <v>1</v>
@@ -4675,7 +4685,7 @@
         <v>81</v>
       </c>
       <c r="N22" s="4">
-        <v>45000</v>
+        <v>49000</v>
       </c>
       <c r="O22" s="2" t="b">
         <v>1</v>
@@ -4684,7 +4694,7 @@
         <v>7</v>
       </c>
       <c r="Q22" s="2">
-        <v>94.1</v>
+        <v>93.4</v>
       </c>
       <c r="R22" s="2" t="b">
         <v>1</v>
@@ -4764,7 +4774,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>31</v>
@@ -4778,8 +4788,8 @@
       <c r="G23" s="2">
         <v>2011</v>
       </c>
-      <c r="H23" s="2">
-        <v>31</v>
+      <c r="H23" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>7</v>
@@ -4788,7 +4798,7 @@
         <v>188</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>7</v>
@@ -4797,7 +4807,7 @@
         <v>81</v>
       </c>
       <c r="N23" s="4">
-        <v>79000</v>
+        <v>45000</v>
       </c>
       <c r="O23" s="2" t="b">
         <v>1</v>
@@ -4806,7 +4816,7 @@
         <v>7</v>
       </c>
       <c r="Q23" s="2">
-        <v>59.7</v>
+        <v>94.1</v>
       </c>
       <c r="R23" s="2" t="b">
         <v>1</v>
@@ -4919,7 +4929,7 @@
         <v>81</v>
       </c>
       <c r="N24" s="4">
-        <v>80000</v>
+        <v>79000</v>
       </c>
       <c r="O24" s="2" t="b">
         <v>1</v>
@@ -4928,7 +4938,7 @@
         <v>7</v>
       </c>
       <c r="Q24" s="2">
-        <v>61.9</v>
+        <v>59.7</v>
       </c>
       <c r="R24" s="2" t="b">
         <v>1</v>
@@ -5002,28 +5012,28 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="G25" s="2">
-        <v>2007</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>7</v>
+        <v>2011</v>
+      </c>
+      <c r="H25" s="2">
+        <v>31</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>7</v>
@@ -5032,16 +5042,16 @@
         <v>188</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N25" s="2">
-        <v>800</v>
+        <v>81</v>
+      </c>
+      <c r="N25" s="4">
+        <v>80000</v>
       </c>
       <c r="O25" s="2" t="b">
         <v>1</v>
@@ -5050,7 +5060,7 @@
         <v>7</v>
       </c>
       <c r="Q25" s="2">
-        <v>5.7</v>
+        <v>61.9</v>
       </c>
       <c r="R25" s="2" t="b">
         <v>1</v>
@@ -5058,8 +5068,8 @@
       <c r="S25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="2">
-        <v>0.21</v>
+      <c r="T25" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="U25" s="2" t="b">
         <v>1</v>
@@ -5071,7 +5081,7 @@
         <v>7</v>
       </c>
       <c r="X25" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="2" t="s">
         <v>7</v>
@@ -5080,25 +5090,25 @@
         <v>7</v>
       </c>
       <c r="AA25" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC25" s="2">
-        <v>-8.6999999999999993</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>-107</v>
-      </c>
-      <c r="AE25" s="2">
-        <v>-2</v>
-      </c>
-      <c r="AF25" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AG25" s="2">
-        <v>10</v>
+      <c r="AC25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AH25" s="2" t="s">
         <v>7</v>
@@ -5118,31 +5128,31 @@
       <c r="AM25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AN25" s="2">
-        <v>0</v>
+      <c r="AN25" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="G26" s="2">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>7</v>
@@ -5160,10 +5170,10 @@
         <v>7</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="4">
-        <v>15</v>
+        <v>93</v>
+      </c>
+      <c r="N26" s="2">
+        <v>800</v>
       </c>
       <c r="O26" s="2" t="b">
         <v>1</v>
@@ -5172,7 +5182,7 @@
         <v>7</v>
       </c>
       <c r="Q26" s="2">
-        <v>0.1</v>
+        <v>5.7</v>
       </c>
       <c r="R26" s="2" t="b">
         <v>1</v>
@@ -5180,14 +5190,14 @@
       <c r="S26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="2" t="s">
-        <v>7</v>
+      <c r="T26" s="2">
+        <v>0.21</v>
       </c>
       <c r="U26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V26" s="4">
-        <v>1001</v>
+        <v>1</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="W26" s="2" t="s">
         <v>7</v>
@@ -5195,8 +5205,8 @@
       <c r="X26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Y26" s="4">
-        <v>1001</v>
+      <c r="Y26" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="Z26" s="2" t="s">
         <v>7</v>
@@ -5208,19 +5218,19 @@
         <v>7</v>
       </c>
       <c r="AC26" s="2">
-        <v>-11.2</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="AD26" s="2">
-        <v>-315</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>7</v>
+        <v>-107</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>-2</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>10</v>
       </c>
       <c r="AH26" s="2" t="s">
         <v>7</v>
@@ -5240,8 +5250,8 @@
       <c r="AM26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AN26" s="2" t="s">
-        <v>7</v>
+      <c r="AN26" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5285,7 +5295,7 @@
         <v>81</v>
       </c>
       <c r="N27" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O27" s="2" t="b">
         <v>1</v>
@@ -5309,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="W27" s="2" t="s">
         <v>7</v>
@@ -5318,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="Z27" s="2" t="s">
         <v>7</v>
@@ -5330,7 +5340,7 @@
         <v>7</v>
       </c>
       <c r="AC27" s="2">
-        <v>-13</v>
+        <v>-11.2</v>
       </c>
       <c r="AD27" s="2">
         <v>-315</v>
@@ -5371,28 +5381,28 @@
         <v>100</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2">
-        <v>1992</v>
+        <v>2015</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G28" s="2">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>188</v>
@@ -5407,7 +5417,7 @@
         <v>81</v>
       </c>
       <c r="N28" s="4">
-        <v>9000</v>
+        <v>20</v>
       </c>
       <c r="O28" s="2" t="b">
         <v>1</v>
@@ -5415,14 +5425,14 @@
       <c r="P28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>7</v>
+      <c r="Q28" s="2">
+        <v>0.1</v>
       </c>
       <c r="R28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="S28" s="4">
-        <v>1000</v>
+      <c r="S28" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>7</v>
@@ -5431,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>7</v>
@@ -5440,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="4">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="Z28" s="2" t="s">
         <v>7</v>
@@ -5452,10 +5462,10 @@
         <v>7</v>
       </c>
       <c r="AC28" s="2">
-        <v>-12.4</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>7</v>
+        <v>-13</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>-315</v>
       </c>
       <c r="AE28" s="2" t="s">
         <v>7</v>
@@ -5514,7 +5524,7 @@
         <v>7</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>188</v>
@@ -5529,7 +5539,7 @@
         <v>81</v>
       </c>
       <c r="N29" s="4">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O29" s="2" t="b">
         <v>1</v>
@@ -5574,7 +5584,7 @@
         <v>7</v>
       </c>
       <c r="AC29" s="2">
-        <v>-14.7</v>
+        <v>-12.4</v>
       </c>
       <c r="AD29" s="2" t="s">
         <v>7</v>
@@ -5618,7 +5628,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>20</v>
@@ -5636,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>188</v>
@@ -5651,7 +5661,7 @@
         <v>81</v>
       </c>
       <c r="N30" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O30" s="2" t="b">
         <v>1</v>
@@ -5696,13 +5706,13 @@
         <v>7</v>
       </c>
       <c r="AC30" s="2">
-        <v>-12</v>
+        <v>-14.7</v>
       </c>
       <c r="AD30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE30" s="2">
-        <v>-11.4</v>
+      <c r="AE30" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AF30" s="2" t="s">
         <v>7</v>
@@ -5734,34 +5744,34 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2">
-        <v>2020</v>
+        <v>1992</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1989</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>24</v>
@@ -5770,10 +5780,10 @@
         <v>7</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N31" s="2">
-        <v>23</v>
+        <v>81</v>
+      </c>
+      <c r="N31" s="4">
+        <v>10000</v>
       </c>
       <c r="O31" s="2" t="b">
         <v>1</v>
@@ -5781,14 +5791,14 @@
       <c r="P31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q31" s="2">
-        <v>7.4999999999999997E-2</v>
+      <c r="Q31" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="R31" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>7</v>
+      <c r="S31" s="4">
+        <v>1000</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>7</v>
@@ -5796,8 +5806,8 @@
       <c r="U31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>7</v>
+      <c r="V31" s="4">
+        <v>1000</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>7</v>
@@ -5805,8 +5815,8 @@
       <c r="X31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Y31" s="2" t="s">
-        <v>7</v>
+      <c r="Y31" s="4">
+        <v>1000</v>
       </c>
       <c r="Z31" s="2" t="s">
         <v>7</v>
@@ -5818,13 +5828,13 @@
         <v>7</v>
       </c>
       <c r="AC31" s="2">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="AD31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AE31" s="2">
-        <v>-0.9</v>
+        <v>-11.4</v>
       </c>
       <c r="AF31" s="2" t="s">
         <v>7</v>
@@ -5880,7 +5890,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>173</v>
@@ -5895,7 +5905,7 @@
         <v>123</v>
       </c>
       <c r="N32" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="O32" s="2" t="b">
         <v>1</v>
@@ -5904,7 +5914,7 @@
         <v>7</v>
       </c>
       <c r="Q32" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="R32" s="2" t="b">
         <v>1</v>
@@ -5940,13 +5950,13 @@
         <v>7</v>
       </c>
       <c r="AC32" s="2">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AE32" s="2">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="AF32" s="2" t="s">
         <v>7</v>
@@ -6002,13 +6012,13 @@
         <v>7</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>173</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>7</v>
@@ -6017,7 +6027,7 @@
         <v>123</v>
       </c>
       <c r="N33" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="O33" s="2" t="b">
         <v>1</v>
@@ -6026,7 +6036,7 @@
         <v>7</v>
       </c>
       <c r="Q33" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="R33" s="2" t="b">
         <v>1</v>
@@ -6062,13 +6072,13 @@
         <v>7</v>
       </c>
       <c r="AC33" s="2">
-        <v>-10.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE33" s="2" t="s">
-        <v>7</v>
+      <c r="AE33" s="2">
+        <v>-1.2</v>
       </c>
       <c r="AF33" s="2" t="s">
         <v>7</v>
@@ -6124,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>173</v>
@@ -6139,7 +6149,7 @@
         <v>123</v>
       </c>
       <c r="N34" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O34" s="2" t="b">
         <v>1</v>
@@ -6147,8 +6157,8 @@
       <c r="P34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q34" s="2" t="s">
-        <v>7</v>
+      <c r="Q34" s="2">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="R34" s="2" t="b">
         <v>1</v>
@@ -6184,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="AC34" s="2">
-        <v>-12.4</v>
+        <v>-10.9</v>
       </c>
       <c r="AD34" s="2" t="s">
         <v>7</v>
@@ -6222,13 +6232,13 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>122</v>
@@ -6246,13 +6256,13 @@
         <v>7</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>173</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>7</v>
@@ -6261,7 +6271,7 @@
         <v>123</v>
       </c>
       <c r="N35" s="2">
-        <v>313</v>
+        <v>1.7</v>
       </c>
       <c r="O35" s="2" t="b">
         <v>1</v>
@@ -6269,8 +6279,8 @@
       <c r="P35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q35" s="2">
-        <v>0.99</v>
+      <c r="Q35" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="R35" s="2" t="b">
         <v>1</v>
@@ -6306,13 +6316,13 @@
         <v>7</v>
       </c>
       <c r="AC35" s="2">
-        <v>-14</v>
+        <v>-12.4</v>
       </c>
       <c r="AD35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE35" s="2">
-        <v>-12.5</v>
+      <c r="AE35" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AF35" s="2" t="s">
         <v>7</v>
@@ -6368,13 +6378,13 @@
         <v>7</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>173</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>7</v>
@@ -6383,7 +6393,7 @@
         <v>123</v>
       </c>
       <c r="N36" s="2">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="O36" s="2" t="b">
         <v>1</v>
@@ -6392,7 +6402,7 @@
         <v>7</v>
       </c>
       <c r="Q36" s="2">
-        <v>0.68</v>
+        <v>0.99</v>
       </c>
       <c r="R36" s="2" t="b">
         <v>1</v>
@@ -6428,13 +6438,13 @@
         <v>7</v>
       </c>
       <c r="AC36" s="2">
-        <v>-4.4000000000000004</v>
+        <v>-14</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AE36" s="2">
-        <v>0.7</v>
+        <v>-12.5</v>
       </c>
       <c r="AF36" s="2" t="s">
         <v>7</v>
@@ -6490,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>173</v>
@@ -6505,7 +6515,7 @@
         <v>123</v>
       </c>
       <c r="N37" s="2">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="O37" s="2" t="b">
         <v>1</v>
@@ -6513,8 +6523,8 @@
       <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q37" s="2" t="s">
-        <v>7</v>
+      <c r="Q37" s="2">
+        <v>0.68</v>
       </c>
       <c r="R37" s="2" t="b">
         <v>1</v>
@@ -6550,13 +6560,13 @@
         <v>7</v>
       </c>
       <c r="AC37" s="2">
-        <v>-7.2</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="AD37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE37" s="2" t="s">
-        <v>7</v>
+      <c r="AE37" s="2">
+        <v>0.7</v>
       </c>
       <c r="AF37" s="2" t="s">
         <v>7</v>
@@ -6612,13 +6622,13 @@
         <v>7</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>173</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>7</v>
@@ -6627,7 +6637,7 @@
         <v>123</v>
       </c>
       <c r="N38" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="O38" s="2" t="b">
         <v>1</v>
@@ -6635,8 +6645,8 @@
       <c r="P38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q38" s="2">
-        <v>8.4000000000000005E-2</v>
+      <c r="Q38" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="R38" s="2" t="b">
         <v>1</v>
@@ -6672,13 +6682,13 @@
         <v>7</v>
       </c>
       <c r="AC38" s="2">
-        <v>-7.9</v>
+        <v>-7.2</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE38" s="2">
-        <v>-10.6</v>
+      <c r="AE38" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AF38" s="2" t="s">
         <v>7</v>
@@ -6734,7 +6744,7 @@
         <v>7</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>173</v>
@@ -6749,7 +6759,7 @@
         <v>123</v>
       </c>
       <c r="N39" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O39" s="2" t="b">
         <v>1</v>
@@ -6757,8 +6767,8 @@
       <c r="P39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q39" s="2" t="s">
-        <v>7</v>
+      <c r="Q39" s="2">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="R39" s="2" t="b">
         <v>1</v>
@@ -6794,13 +6804,13 @@
         <v>7</v>
       </c>
       <c r="AC39" s="2">
-        <v>-16.7</v>
+        <v>-7.9</v>
       </c>
       <c r="AD39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE39" s="2" t="s">
-        <v>7</v>
+      <c r="AE39" s="2">
+        <v>-10.6</v>
       </c>
       <c r="AF39" s="2" t="s">
         <v>7</v>
@@ -6856,13 +6866,13 @@
         <v>7</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>173</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>7</v>
@@ -6871,7 +6881,7 @@
         <v>123</v>
       </c>
       <c r="N40" s="2">
-        <v>4.3</v>
+        <v>72</v>
       </c>
       <c r="O40" s="2" t="b">
         <v>1</v>
@@ -6879,8 +6889,8 @@
       <c r="P40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q40" s="2">
-        <v>1.4999999999999999E-2</v>
+      <c r="Q40" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="R40" s="2" t="b">
         <v>1</v>
@@ -6916,7 +6926,7 @@
         <v>7</v>
       </c>
       <c r="AC40" s="2">
-        <v>-15.8</v>
+        <v>-16.7</v>
       </c>
       <c r="AD40" s="2" t="s">
         <v>7</v>
@@ -6978,7 +6988,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>173</v>
@@ -6993,7 +7003,7 @@
         <v>123</v>
       </c>
       <c r="N41" s="2">
-        <v>9.9</v>
+        <v>4.3</v>
       </c>
       <c r="O41" s="2" t="b">
         <v>1</v>
@@ -7002,7 +7012,7 @@
         <v>7</v>
       </c>
       <c r="Q41" s="2">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R41" s="2" t="b">
         <v>1</v>
@@ -7038,7 +7048,7 @@
         <v>7</v>
       </c>
       <c r="AC41" s="2">
-        <v>-11.6</v>
+        <v>-15.8</v>
       </c>
       <c r="AD41" s="2" t="s">
         <v>7</v>
@@ -7079,31 +7089,31 @@
         <v>141</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2012</v>
+        <v>189</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>24</v>
@@ -7112,10 +7122,10 @@
         <v>7</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="N42" s="2">
-        <v>2620</v>
+        <v>9.9</v>
       </c>
       <c r="O42" s="2" t="b">
         <v>1</v>
@@ -7124,7 +7134,7 @@
         <v>7</v>
       </c>
       <c r="Q42" s="2">
-        <v>0.60299999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="R42" s="2" t="b">
         <v>1</v>
@@ -7132,11 +7142,11 @@
       <c r="S42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T42" s="2">
-        <v>5.1999999999999998E-2</v>
+      <c r="T42" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="U42" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>7</v>
@@ -7160,16 +7170,16 @@
         <v>7</v>
       </c>
       <c r="AC42" s="2">
-        <v>-15.6</v>
+        <v>-11.6</v>
       </c>
       <c r="AD42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE42" s="2">
-        <v>-12.9</v>
-      </c>
-      <c r="AF42" s="2">
-        <v>-9.8000000000000007</v>
+      <c r="AE42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AG42" s="2" t="s">
         <v>7</v>
@@ -7222,7 +7232,7 @@
         <v>7</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>188</v>
@@ -7237,7 +7247,7 @@
         <v>93</v>
       </c>
       <c r="N43" s="2">
-        <v>2720</v>
+        <v>2620</v>
       </c>
       <c r="O43" s="2" t="b">
         <v>1</v>
@@ -7245,20 +7255,20 @@
       <c r="P43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q43" s="2" t="s">
-        <v>7</v>
+      <c r="Q43" s="2">
+        <v>0.60299999999999998</v>
       </c>
       <c r="R43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T43" s="2" t="s">
-        <v>7</v>
+      <c r="T43" s="2">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="U43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>7</v>
@@ -7282,16 +7292,16 @@
         <v>7</v>
       </c>
       <c r="AC43" s="2">
-        <v>-15.3</v>
+        <v>-15.6</v>
       </c>
       <c r="AD43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AE43" s="2">
-        <v>-12.3</v>
-      </c>
-      <c r="AF43" s="2" t="s">
-        <v>7</v>
+        <v>-12.9</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>-9.8000000000000007</v>
       </c>
       <c r="AG43" s="2" t="s">
         <v>7</v>
@@ -7326,7 +7336,7 @@
         <v>140</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>142</v>
@@ -7344,7 +7354,7 @@
         <v>7</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>188</v>
@@ -7359,7 +7369,7 @@
         <v>93</v>
       </c>
       <c r="N44" s="2">
-        <v>2080</v>
+        <v>2720</v>
       </c>
       <c r="O44" s="2" t="b">
         <v>1</v>
@@ -7367,20 +7377,20 @@
       <c r="P44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q44" s="2">
-        <v>0.48499999999999999</v>
+      <c r="Q44" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="R44" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T44" s="2">
-        <v>4.1000000000000002E-2</v>
+      <c r="T44" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="U44" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>7</v>
@@ -7404,13 +7414,13 @@
         <v>7</v>
       </c>
       <c r="AC44" s="2">
-        <v>-15.6</v>
+        <v>-15.3</v>
       </c>
       <c r="AD44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE44" s="2" t="s">
-        <v>7</v>
+      <c r="AE44" s="2">
+        <v>-12.3</v>
       </c>
       <c r="AF44" s="2" t="s">
         <v>7</v>
@@ -7448,7 +7458,7 @@
         <v>140</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>142</v>
@@ -7466,7 +7476,7 @@
         <v>7</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>188</v>
@@ -7481,7 +7491,7 @@
         <v>93</v>
       </c>
       <c r="N45" s="2">
-        <v>1880</v>
+        <v>2080</v>
       </c>
       <c r="O45" s="2" t="b">
         <v>1</v>
@@ -7489,20 +7499,20 @@
       <c r="P45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="2" t="s">
-        <v>7</v>
+      <c r="Q45" s="2">
+        <v>0.48499999999999999</v>
       </c>
       <c r="R45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T45" s="2" t="s">
-        <v>7</v>
+      <c r="T45" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="U45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>7</v>
@@ -7526,16 +7536,16 @@
         <v>7</v>
       </c>
       <c r="AC45" s="2">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="AD45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE45" s="2">
-        <v>-13.2</v>
-      </c>
-      <c r="AF45" s="2">
-        <v>-10.8</v>
+      <c r="AE45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AG45" s="2" t="s">
         <v>7</v>
@@ -7570,7 +7580,7 @@
         <v>140</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>142</v>
@@ -7588,7 +7598,7 @@
         <v>7</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>188</v>
@@ -7603,7 +7613,7 @@
         <v>93</v>
       </c>
       <c r="N46" s="2">
-        <v>2020</v>
+        <v>1880</v>
       </c>
       <c r="O46" s="2" t="b">
         <v>1</v>
@@ -7648,16 +7658,16 @@
         <v>7</v>
       </c>
       <c r="AC46" s="2">
-        <v>-15.6</v>
+        <v>-15.8</v>
       </c>
       <c r="AD46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF46" s="2" t="s">
-        <v>7</v>
+      <c r="AE46" s="2">
+        <v>-13.2</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>-10.8</v>
       </c>
       <c r="AG46" s="2" t="s">
         <v>7</v>
@@ -7684,7 +7694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>141</v>
       </c>
@@ -7710,7 +7720,7 @@
         <v>7</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>188</v>
@@ -7725,7 +7735,7 @@
         <v>93</v>
       </c>
       <c r="N47" s="2">
-        <v>1960</v>
+        <v>2020</v>
       </c>
       <c r="O47" s="2" t="b">
         <v>1</v>
@@ -7733,20 +7743,20 @@
       <c r="P47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q47" s="2">
-        <v>0.43099999999999999</v>
+      <c r="Q47" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="R47" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T47" s="2">
-        <v>3.7999999999999999E-2</v>
+      <c r="T47" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="U47" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>7</v>
@@ -7770,7 +7780,7 @@
         <v>7</v>
       </c>
       <c r="AC47" s="2">
-        <v>-15.1</v>
+        <v>-15.6</v>
       </c>
       <c r="AD47" s="2" t="s">
         <v>7</v>
@@ -7814,7 +7824,7 @@
         <v>140</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>142</v>
@@ -7832,7 +7842,7 @@
         <v>7</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>188</v>
@@ -7847,7 +7857,7 @@
         <v>93</v>
       </c>
       <c r="N48" s="2">
-        <v>1740</v>
+        <v>1960</v>
       </c>
       <c r="O48" s="2" t="b">
         <v>1</v>
@@ -7856,7 +7866,7 @@
         <v>7</v>
       </c>
       <c r="Q48" s="2">
-        <v>0.41699999999999998</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="R48" s="2" t="b">
         <v>1</v>
@@ -7865,7 +7875,7 @@
         <v>7</v>
       </c>
       <c r="T48" s="2">
-        <v>3.5999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="U48" s="2" t="b">
         <v>1</v>
@@ -7892,13 +7902,13 @@
         <v>7</v>
       </c>
       <c r="AC48" s="2">
-        <v>-15.7</v>
+        <v>-15.1</v>
       </c>
       <c r="AD48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE48" s="2">
-        <v>-12.5</v>
+      <c r="AE48" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AF48" s="2" t="s">
         <v>7</v>
@@ -7928,7 +7938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -7936,7 +7946,7 @@
         <v>140</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>142</v>
@@ -7954,7 +7964,7 @@
         <v>7</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>188</v>
@@ -7969,7 +7979,7 @@
         <v>93</v>
       </c>
       <c r="N49" s="2">
-        <v>1640</v>
+        <v>1740</v>
       </c>
       <c r="O49" s="2" t="b">
         <v>1</v>
@@ -7978,7 +7988,7 @@
         <v>7</v>
       </c>
       <c r="Q49" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="R49" s="2" t="b">
         <v>1</v>
@@ -7987,7 +7997,7 @@
         <v>7</v>
       </c>
       <c r="T49" s="2">
-        <v>0.03</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="U49" s="2" t="b">
         <v>1</v>
@@ -8014,13 +8024,13 @@
         <v>7</v>
       </c>
       <c r="AC49" s="2">
-        <v>-15.6</v>
+        <v>-15.7</v>
       </c>
       <c r="AD49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AE49" s="2">
-        <v>-12.6</v>
+        <v>-12.5</v>
       </c>
       <c r="AF49" s="2" t="s">
         <v>7</v>
@@ -8076,7 +8086,7 @@
         <v>7</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>188</v>
@@ -8091,7 +8101,7 @@
         <v>93</v>
       </c>
       <c r="N50" s="2">
-        <v>1670</v>
+        <v>1640</v>
       </c>
       <c r="O50" s="2" t="b">
         <v>1</v>
@@ -8100,7 +8110,7 @@
         <v>7</v>
       </c>
       <c r="Q50" s="2">
-        <v>0.33500000000000002</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="R50" s="2" t="b">
         <v>1</v>
@@ -8109,7 +8119,7 @@
         <v>7</v>
       </c>
       <c r="T50" s="2">
-        <v>2.9000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="U50" s="2" t="b">
         <v>1</v>
@@ -8136,13 +8146,13 @@
         <v>7</v>
       </c>
       <c r="AC50" s="2">
-        <v>-15.1</v>
+        <v>-15.6</v>
       </c>
       <c r="AD50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE50" s="2" t="s">
-        <v>7</v>
+      <c r="AE50" s="2">
+        <v>-12.6</v>
       </c>
       <c r="AF50" s="2" t="s">
         <v>7</v>
@@ -8180,7 +8190,7 @@
         <v>140</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>142</v>
@@ -8198,7 +8208,7 @@
         <v>7</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>188</v>
@@ -8213,7 +8223,7 @@
         <v>93</v>
       </c>
       <c r="N51" s="2">
-        <v>2100</v>
+        <v>1670</v>
       </c>
       <c r="O51" s="2" t="b">
         <v>1</v>
@@ -8222,7 +8232,7 @@
         <v>7</v>
       </c>
       <c r="Q51" s="2">
-        <v>0.47499999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="R51" s="2" t="b">
         <v>1</v>
@@ -8231,7 +8241,7 @@
         <v>7</v>
       </c>
       <c r="T51" s="2">
-        <v>0.04</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="U51" s="2" t="b">
         <v>1</v>
@@ -8263,11 +8273,11 @@
       <c r="AD51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE51" s="2">
-        <v>-12.9</v>
-      </c>
-      <c r="AF51" s="2">
-        <v>-9.6999999999999993</v>
+      <c r="AE51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AG51" s="2" t="s">
         <v>7</v>
@@ -8320,7 +8330,7 @@
         <v>7</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>188</v>
@@ -8335,7 +8345,7 @@
         <v>93</v>
       </c>
       <c r="N52" s="2">
-        <v>1730</v>
+        <v>2100</v>
       </c>
       <c r="O52" s="2" t="b">
         <v>1</v>
@@ -8344,7 +8354,7 @@
         <v>7</v>
       </c>
       <c r="Q52" s="2">
-        <v>0.36499999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="R52" s="2" t="b">
         <v>1</v>
@@ -8353,7 +8363,7 @@
         <v>7</v>
       </c>
       <c r="T52" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="U52" s="2" t="b">
         <v>1</v>
@@ -8380,16 +8390,16 @@
         <v>7</v>
       </c>
       <c r="AC52" s="2">
-        <v>-15.4</v>
+        <v>-15.1</v>
       </c>
       <c r="AD52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AE52" s="2">
-        <v>-12.7</v>
-      </c>
-      <c r="AF52" s="2" t="s">
-        <v>7</v>
+        <v>-12.9</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>-9.6999999999999993</v>
       </c>
       <c r="AG52" s="2" t="s">
         <v>7</v>
@@ -8424,7 +8434,7 @@
         <v>140</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>142</v>
@@ -8442,7 +8452,7 @@
         <v>7</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>188</v>
@@ -8457,7 +8467,7 @@
         <v>93</v>
       </c>
       <c r="N53" s="2">
-        <v>1970</v>
+        <v>1730</v>
       </c>
       <c r="O53" s="2" t="b">
         <v>1</v>
@@ -8465,20 +8475,20 @@
       <c r="P53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q53" s="2" t="s">
-        <v>7</v>
+      <c r="Q53" s="2">
+        <v>0.36499999999999999</v>
       </c>
       <c r="R53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T53" s="2" t="s">
-        <v>7</v>
+      <c r="T53" s="2">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="U53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>7</v>
@@ -8502,13 +8512,13 @@
         <v>7</v>
       </c>
       <c r="AC53" s="2">
-        <v>-15.2</v>
+        <v>-15.4</v>
       </c>
       <c r="AD53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE53" s="2" t="s">
-        <v>7</v>
+      <c r="AE53" s="2">
+        <v>-12.7</v>
       </c>
       <c r="AF53" s="2" t="s">
         <v>7</v>
@@ -8564,7 +8574,7 @@
         <v>7</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>188</v>
@@ -8579,7 +8589,7 @@
         <v>93</v>
       </c>
       <c r="N54" s="2">
-        <v>1920</v>
+        <v>1970</v>
       </c>
       <c r="O54" s="2" t="b">
         <v>1</v>
@@ -8587,20 +8597,20 @@
       <c r="P54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q54" s="2">
-        <v>0.45500000000000002</v>
+      <c r="Q54" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="R54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T54" s="2">
-        <v>0.04</v>
+      <c r="T54" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="U54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>7</v>
@@ -8624,16 +8634,16 @@
         <v>7</v>
       </c>
       <c r="AC54" s="2">
-        <v>-15</v>
+        <v>-15.2</v>
       </c>
       <c r="AD54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE54" s="2">
-        <v>-12.6</v>
+      <c r="AE54" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="AG54" s="2" t="s">
         <v>7</v>
@@ -8668,7 +8678,7 @@
         <v>140</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>142</v>
@@ -8686,7 +8696,7 @@
         <v>7</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>188</v>
@@ -8701,7 +8711,7 @@
         <v>93</v>
       </c>
       <c r="N55" s="2">
-        <v>290</v>
+        <v>1920</v>
       </c>
       <c r="O55" s="2" t="b">
         <v>1</v>
@@ -8710,7 +8720,7 @@
         <v>7</v>
       </c>
       <c r="Q55" s="2">
-        <v>0.51800000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="R55" s="2" t="b">
         <v>1</v>
@@ -8719,7 +8729,7 @@
         <v>7</v>
       </c>
       <c r="T55" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>0.04</v>
       </c>
       <c r="U55" s="2" t="b">
         <v>1</v>
@@ -8746,16 +8756,16 @@
         <v>7</v>
       </c>
       <c r="AC55" s="2">
-        <v>-15.1</v>
+        <v>-15</v>
       </c>
       <c r="AD55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AE55" s="2" t="s">
-        <v>7</v>
+      <c r="AE55" s="2">
+        <v>-12.6</v>
       </c>
       <c r="AF55" s="2" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="AG55" s="2" t="s">
         <v>7</v>
@@ -8784,46 +8794,46 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="E56" s="2">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>7</v>
+        <v>143</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2012</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="2">
-        <v>8558</v>
+      <c r="I56" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N56" s="2">
-        <v>742000</v>
+        <v>290</v>
       </c>
       <c r="O56" s="2" t="b">
         <v>1</v>
@@ -8832,7 +8842,7 @@
         <v>7</v>
       </c>
       <c r="Q56" s="2">
-        <v>106000</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="R56" s="2" t="b">
         <v>1</v>
@@ -8841,7 +8851,7 @@
         <v>7</v>
       </c>
       <c r="T56" s="2">
-        <v>19900</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="U56" s="2" t="b">
         <v>1</v>
@@ -8849,41 +8859,41 @@
       <c r="V56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W56" s="2">
-        <v>4200</v>
+      <c r="W56" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="X56" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z56" s="2">
-        <v>1000</v>
+      <c r="Z56" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AA56" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AC56" s="2">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="AD56" s="2">
-        <v>-419</v>
-      </c>
-      <c r="AE56" s="2">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="AF56" s="2">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="AG56" s="2">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="AH56" s="2">
-        <v>-33.6</v>
+        <v>-15.1</v>
+      </c>
+      <c r="AD56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH56" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AI56" s="2" t="s">
         <v>7</v>
@@ -8930,7 +8940,7 @@
         <v>7</v>
       </c>
       <c r="I57" s="2">
-        <v>8428</v>
+        <v>8558</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>188</v>
@@ -8945,7 +8955,7 @@
         <v>81</v>
       </c>
       <c r="N57" s="2">
-        <v>719000</v>
+        <v>742000</v>
       </c>
       <c r="O57" s="2" t="b">
         <v>1</v>
@@ -8954,7 +8964,7 @@
         <v>7</v>
       </c>
       <c r="Q57" s="2">
-        <v>103000</v>
+        <v>106000</v>
       </c>
       <c r="R57" s="2" t="b">
         <v>1</v>
@@ -8963,7 +8973,7 @@
         <v>7</v>
       </c>
       <c r="T57" s="2">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="U57" s="2" t="b">
         <v>1</v>
@@ -8972,7 +8982,7 @@
         <v>7</v>
       </c>
       <c r="W57" s="2">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="X57" s="2" t="b">
         <v>1</v>
@@ -8990,23 +9000,22 @@
         <v>7</v>
       </c>
       <c r="AC57" s="2">
-        <v>-34</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="AD57" s="2">
-        <v>-412</v>
+        <v>-419</v>
       </c>
       <c r="AE57" s="2">
-        <v>-36.4</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="AF57" s="2">
-        <v>-34.9</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="AG57" s="2">
-        <f>-34.4</f>
-        <v>-34.4</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="AH57" s="2">
-        <v>-33.1</v>
+        <v>-33.6</v>
       </c>
       <c r="AI57" s="2" t="s">
         <v>7</v>
@@ -9053,7 +9062,7 @@
         <v>7</v>
       </c>
       <c r="I58" s="2">
-        <v>8282</v>
+        <v>8428</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>188</v>
@@ -9068,7 +9077,7 @@
         <v>81</v>
       </c>
       <c r="N58" s="2">
-        <v>693000</v>
+        <v>719000</v>
       </c>
       <c r="O58" s="2" t="b">
         <v>1</v>
@@ -9077,7 +9086,7 @@
         <v>7</v>
       </c>
       <c r="Q58" s="2">
-        <v>117000</v>
+        <v>103000</v>
       </c>
       <c r="R58" s="2" t="b">
         <v>1</v>
@@ -9086,7 +9095,7 @@
         <v>7</v>
       </c>
       <c r="T58" s="2">
-        <v>24200</v>
+        <v>20200</v>
       </c>
       <c r="U58" s="2" t="b">
         <v>1</v>
@@ -9095,7 +9104,7 @@
         <v>7</v>
       </c>
       <c r="W58" s="2">
-        <v>5699.9999999999991</v>
+        <v>4100</v>
       </c>
       <c r="X58" s="2" t="b">
         <v>1</v>
@@ -9104,7 +9113,7 @@
         <v>7</v>
       </c>
       <c r="Z58" s="2">
-        <v>1400.0000000000002</v>
+        <v>1000</v>
       </c>
       <c r="AA58" s="2" t="b">
         <v>1</v>
@@ -9113,22 +9122,22 @@
         <v>7</v>
       </c>
       <c r="AC58" s="2">
-        <v>-32</v>
+        <v>-34</v>
       </c>
       <c r="AD58" s="2">
-        <v>-409</v>
+        <v>-412</v>
       </c>
       <c r="AE58" s="2">
-        <v>-38.299999999999997</v>
+        <v>-36.4</v>
       </c>
       <c r="AF58" s="2">
-        <v>-35.9</v>
+        <v>-34.9</v>
       </c>
       <c r="AG58" s="2">
-        <v>-35.6</v>
+        <v>-34.4</v>
       </c>
       <c r="AH58" s="2">
-        <v>-34.299999999999997</v>
+        <v>-33.1</v>
       </c>
       <c r="AI58" s="2" t="s">
         <v>7</v>
@@ -9149,7 +9158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
@@ -9175,7 +9184,7 @@
         <v>7</v>
       </c>
       <c r="I59" s="2">
-        <v>8402</v>
+        <v>8282</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>188</v>
@@ -9190,7 +9199,7 @@
         <v>81</v>
       </c>
       <c r="N59" s="2">
-        <v>694000</v>
+        <v>693000</v>
       </c>
       <c r="O59" s="2" t="b">
         <v>1</v>
@@ -9199,7 +9208,7 @@
         <v>7</v>
       </c>
       <c r="Q59" s="2">
-        <v>94400</v>
+        <v>117000</v>
       </c>
       <c r="R59" s="2" t="b">
         <v>1</v>
@@ -9208,7 +9217,7 @@
         <v>7</v>
       </c>
       <c r="T59" s="2">
-        <v>17000</v>
+        <v>24200</v>
       </c>
       <c r="U59" s="2" t="b">
         <v>1</v>
@@ -9217,7 +9226,7 @@
         <v>7</v>
       </c>
       <c r="W59" s="2">
-        <v>3800</v>
+        <v>5699.9999999999991</v>
       </c>
       <c r="X59" s="2" t="b">
         <v>1</v>
@@ -9226,7 +9235,7 @@
         <v>7</v>
       </c>
       <c r="Z59" s="2">
-        <v>900</v>
+        <v>1400.0000000000002</v>
       </c>
       <c r="AA59" s="2" t="b">
         <v>1</v>
@@ -9235,19 +9244,19 @@
         <v>7</v>
       </c>
       <c r="AC59" s="2">
-        <v>-34.9</v>
+        <v>-32</v>
       </c>
       <c r="AD59" s="2">
-        <v>-406</v>
+        <v>-409</v>
       </c>
       <c r="AE59" s="2">
-        <v>-38.1</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="AF59" s="2">
-        <v>-36.799999999999997</v>
+        <v>-35.9</v>
       </c>
       <c r="AG59" s="2">
-        <v>-36</v>
+        <v>-35.6</v>
       </c>
       <c r="AH59" s="2">
         <v>-34.299999999999997</v>
@@ -9297,7 +9306,7 @@
         <v>7</v>
       </c>
       <c r="I60" s="2">
-        <v>8539</v>
+        <v>8402</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>188</v>
@@ -9312,7 +9321,7 @@
         <v>81</v>
       </c>
       <c r="N60" s="2">
-        <v>722000</v>
+        <v>694000</v>
       </c>
       <c r="O60" s="2" t="b">
         <v>1</v>
@@ -9321,7 +9330,7 @@
         <v>7</v>
       </c>
       <c r="Q60" s="2">
-        <v>99300</v>
+        <v>94400</v>
       </c>
       <c r="R60" s="2" t="b">
         <v>1</v>
@@ -9330,7 +9339,7 @@
         <v>7</v>
       </c>
       <c r="T60" s="2">
-        <v>18800</v>
+        <v>17000</v>
       </c>
       <c r="U60" s="2" t="b">
         <v>1</v>
@@ -9339,7 +9348,7 @@
         <v>7</v>
       </c>
       <c r="W60" s="2">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="X60" s="2" t="b">
         <v>1</v>
@@ -9357,22 +9366,22 @@
         <v>7</v>
       </c>
       <c r="AC60" s="2">
-        <v>-34</v>
+        <v>-34.9</v>
       </c>
       <c r="AD60" s="2">
-        <v>-417</v>
+        <v>-406</v>
       </c>
       <c r="AE60" s="2">
-        <v>-37.200000000000003</v>
+        <v>-38.1</v>
       </c>
       <c r="AF60" s="2">
-        <v>-36.1</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="AG60" s="2">
-        <v>-35.6</v>
+        <v>-36</v>
       </c>
       <c r="AH60" s="2">
-        <v>-33.9</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="AI60" s="2" t="s">
         <v>7</v>
@@ -9395,37 +9404,37 @@
     </row>
     <row r="61" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E61" s="2">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="I61" s="2">
+        <v>8539</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>7</v>
@@ -9433,27 +9442,26 @@
       <c r="M61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N61" s="4">
-        <v>29000</v>
+      <c r="N61" s="2">
+        <v>722000</v>
       </c>
       <c r="O61" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="P61" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>7</v>
+      <c r="P61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>99300</v>
       </c>
       <c r="R61" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="S61" s="2">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>7</v>
+      <c r="S61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T61" s="2">
+        <v>18800</v>
       </c>
       <c r="U61" s="2" t="b">
         <v>1</v>
@@ -9461,41 +9469,41 @@
       <c r="V61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W61" s="2" t="s">
-        <v>7</v>
+      <c r="W61" s="2">
+        <v>4100</v>
       </c>
       <c r="X61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z61" s="2" t="s">
-        <v>7</v>
+      <c r="Z61" s="2">
+        <v>900</v>
       </c>
       <c r="AA61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AC61" s="2">
-        <v>-12.8</v>
-      </c>
-      <c r="AD61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH61" s="2" t="s">
-        <v>7</v>
+        <v>-34</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>-417</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>-36.1</v>
+      </c>
+      <c r="AG61" s="2">
+        <v>-35.6</v>
+      </c>
+      <c r="AH61" s="2">
+        <v>-33.9</v>
       </c>
       <c r="AI61" s="2" t="s">
         <v>7</v>
@@ -9516,15 +9524,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>48</v>
@@ -9539,7 +9547,7 @@
         <v>7</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>7</v>
@@ -9557,7 +9565,7 @@
         <v>81</v>
       </c>
       <c r="N62" s="4">
-        <v>46000</v>
+        <v>167000</v>
       </c>
       <c r="O62" s="2" t="b">
         <v>1</v>
@@ -9572,7 +9580,6 @@
         <v>1</v>
       </c>
       <c r="S62" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T62" s="2" t="s">
@@ -9603,10 +9610,10 @@
         <v>7</v>
       </c>
       <c r="AC62" s="2">
-        <v>-6.2</v>
+        <v>-13.3</v>
       </c>
       <c r="AD62" s="2">
-        <v>-242</v>
+        <v>-395</v>
       </c>
       <c r="AE62" s="2" t="s">
         <v>7</v>
@@ -9639,15 +9646,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>48</v>
@@ -9658,11 +9665,11 @@
       <c r="F63" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G63" s="2">
-        <v>2008</v>
+      <c r="G63" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>7</v>
@@ -9680,7 +9687,7 @@
         <v>81</v>
       </c>
       <c r="N63" s="4">
-        <v>19000</v>
+        <v>387000</v>
       </c>
       <c r="O63" s="2" t="b">
         <v>1</v>
@@ -9695,7 +9702,6 @@
         <v>1</v>
       </c>
       <c r="S63" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T63" s="2" t="s">
@@ -9726,10 +9732,10 @@
         <v>7</v>
       </c>
       <c r="AC63" s="2">
-        <v>-10.1</v>
+        <v>-5.6</v>
       </c>
       <c r="AD63" s="2">
-        <v>-235</v>
+        <v>-163</v>
       </c>
       <c r="AE63" s="2" t="s">
         <v>7</v>
@@ -9762,15 +9768,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>48</v>
@@ -9781,8 +9787,8 @@
       <c r="F64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G64" s="2">
-        <v>2010</v>
+      <c r="G64" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>60</v>
@@ -9802,11 +9808,11 @@
       <c r="M64" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N64" s="2" t="s">
-        <v>7</v>
+      <c r="N64" s="4">
+        <v>522000</v>
       </c>
       <c r="O64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="4">
         <v>100</v>
@@ -9815,17 +9821,16 @@
         <v>7</v>
       </c>
       <c r="R64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" s="2" t="s">
         <v>7</v>
@@ -9848,11 +9853,11 @@
       <c r="AB64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC64" s="2" t="s">
-        <v>7</v>
+      <c r="AC64" s="2">
+        <v>-6.5</v>
       </c>
       <c r="AD64" s="2">
-        <v>-234</v>
+        <v>-175</v>
       </c>
       <c r="AE64" s="2" t="s">
         <v>7</v>
@@ -9885,7 +9890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>100</v>
       </c>
@@ -9893,7 +9898,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>48</v>
@@ -9904,8 +9909,8 @@
       <c r="F65" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G65" s="2">
-        <v>2012</v>
+      <c r="G65" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>60</v>
@@ -9926,7 +9931,7 @@
         <v>81</v>
       </c>
       <c r="N65" s="4">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="O65" s="2" t="b">
         <v>1</v>
@@ -9934,15 +9939,13 @@
       <c r="P65" s="4">
         <v>100</v>
       </c>
-      <c r="Q65" s="2">
-        <f>0.02*10000</f>
-        <v>200</v>
+      <c r="Q65" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="R65" s="2" t="b">
         <v>1</v>
       </c>
       <c r="S65" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T65" s="2" t="s">
@@ -9972,11 +9975,11 @@
       <c r="AB65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD65" s="2">
-        <v>-413</v>
+      <c r="AC65" s="2">
+        <v>-12.8</v>
+      </c>
+      <c r="AD65" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AE65" s="2" t="s">
         <v>7</v>
@@ -10017,7 +10020,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>48</v>
@@ -10050,7 +10053,7 @@
         <v>81</v>
       </c>
       <c r="N66" s="4">
-        <v>1000</v>
+        <v>46000</v>
       </c>
       <c r="O66" s="2" t="b">
         <v>1</v>
@@ -10065,7 +10068,6 @@
         <v>1</v>
       </c>
       <c r="S66" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T66" s="2" t="s">
@@ -10096,10 +10098,10 @@
         <v>7</v>
       </c>
       <c r="AC66" s="2">
-        <v>-7.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD66" s="2">
-        <v>-428</v>
+        <v>-242</v>
       </c>
       <c r="AE66" s="2" t="s">
         <v>7</v>
@@ -10140,7 +10142,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>48</v>
@@ -10152,7 +10154,7 @@
         <v>47</v>
       </c>
       <c r="G67" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>60</v>
@@ -10173,7 +10175,7 @@
         <v>81</v>
       </c>
       <c r="N67" s="4">
-        <v>88000</v>
+        <v>19000</v>
       </c>
       <c r="O67" s="2" t="b">
         <v>1</v>
@@ -10188,7 +10190,6 @@
         <v>1</v>
       </c>
       <c r="S67" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T67" s="2" t="s">
@@ -10219,10 +10220,10 @@
         <v>7</v>
       </c>
       <c r="AC67" s="2">
-        <v>4</v>
+        <v>-10.1</v>
       </c>
       <c r="AD67" s="2">
-        <v>-303</v>
+        <v>-235</v>
       </c>
       <c r="AE67" s="2" t="s">
         <v>7</v>
@@ -10263,7 +10264,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>48</v>
@@ -10275,13 +10276,13 @@
         <v>47</v>
       </c>
       <c r="G68" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>188</v>
@@ -10295,11 +10296,11 @@
       <c r="M68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N68" s="4">
-        <v>96000</v>
+      <c r="N68" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="O68" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" s="4">
         <v>100</v>
@@ -10308,17 +10309,16 @@
         <v>7</v>
       </c>
       <c r="R68" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U68" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>7</v>
@@ -10341,11 +10341,11 @@
       <c r="AB68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC68" s="2">
-        <v>3.9</v>
+      <c r="AC68" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AD68" s="2">
-        <v>-360</v>
+        <v>-234</v>
       </c>
       <c r="AE68" s="2" t="s">
         <v>7</v>
@@ -10386,7 +10386,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>48</v>
@@ -10404,7 +10404,7 @@
         <v>60</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>188</v>
@@ -10418,30 +10418,29 @@
       <c r="M69" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N69" s="2" t="s">
-        <v>7</v>
+      <c r="N69" s="4">
+        <v>22000</v>
       </c>
       <c r="O69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" s="4">
         <v>100</v>
       </c>
-      <c r="Q69" s="2" t="s">
-        <v>7</v>
+      <c r="Q69" s="2">
+        <v>200</v>
       </c>
       <c r="R69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>7</v>
@@ -10467,8 +10466,8 @@
       <c r="AC69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AD69" s="2" t="s">
-        <v>7</v>
+      <c r="AD69" s="2">
+        <v>-413</v>
       </c>
       <c r="AE69" s="2" t="s">
         <v>7</v>
@@ -10509,7 +10508,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>48</v>
@@ -10520,14 +10519,14 @@
       <c r="F70" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="2">
-        <v>2012</v>
+      <c r="G70" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I70" s="2">
-        <v>6</v>
+      <c r="I70" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>188</v>
@@ -10542,7 +10541,7 @@
         <v>81</v>
       </c>
       <c r="N70" s="4">
-        <v>40000</v>
+        <v>1000</v>
       </c>
       <c r="O70" s="2" t="b">
         <v>1</v>
@@ -10550,15 +10549,13 @@
       <c r="P70" s="4">
         <v>100</v>
       </c>
-      <c r="Q70" s="2">
-        <f>0.05*10000</f>
-        <v>500</v>
+      <c r="Q70" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="R70" s="2" t="b">
         <v>1</v>
       </c>
       <c r="S70" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T70" s="2" t="s">
@@ -10588,11 +10585,11 @@
       <c r="AB70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC70" s="2" t="s">
-        <v>7</v>
+      <c r="AC70" s="2">
+        <v>-7.3</v>
       </c>
       <c r="AD70" s="2">
-        <v>-404</v>
+        <v>-428</v>
       </c>
       <c r="AE70" s="2" t="s">
         <v>7</v>
@@ -10645,13 +10642,13 @@
         <v>47</v>
       </c>
       <c r="G71" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I71" s="2">
-        <v>8</v>
+      <c r="I71" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>188</v>
@@ -10666,7 +10663,7 @@
         <v>81</v>
       </c>
       <c r="N71" s="4">
-        <v>46000</v>
+        <v>88000</v>
       </c>
       <c r="O71" s="2" t="b">
         <v>1</v>
@@ -10674,17 +10671,15 @@
       <c r="P71" s="4">
         <v>100</v>
       </c>
-      <c r="Q71" s="2">
-        <f>0.01*10000</f>
+      <c r="Q71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S71" s="2">
         <v>100</v>
       </c>
-      <c r="R71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S71" s="2">
-        <f>100</f>
-        <v>100</v>
-      </c>
       <c r="T71" s="2" t="s">
         <v>7</v>
       </c>
@@ -10712,11 +10707,11 @@
       <c r="AB71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC71" s="2" t="s">
-        <v>7</v>
+      <c r="AC71" s="2">
+        <v>4</v>
       </c>
       <c r="AD71" s="2">
-        <v>-391</v>
+        <v>-303</v>
       </c>
       <c r="AE71" s="2" t="s">
         <v>7</v>
@@ -10757,7 +10752,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>48</v>
@@ -10768,14 +10763,14 @@
       <c r="F72" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>7</v>
+      <c r="G72" s="2">
+        <v>2012</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>188</v>
@@ -10790,7 +10785,7 @@
         <v>81</v>
       </c>
       <c r="N72" s="4">
-        <v>100000</v>
+        <v>96000</v>
       </c>
       <c r="O72" s="2" t="b">
         <v>1</v>
@@ -10805,7 +10800,6 @@
         <v>1</v>
       </c>
       <c r="S72" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T72" s="2" t="s">
@@ -10836,10 +10830,10 @@
         <v>7</v>
       </c>
       <c r="AC72" s="2">
-        <v>-9.9</v>
+        <v>3.9</v>
       </c>
       <c r="AD72" s="2">
-        <v>-319</v>
+        <v>-360</v>
       </c>
       <c r="AE72" s="2" t="s">
         <v>7</v>
@@ -10880,7 +10874,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>48</v>
@@ -10891,14 +10885,14 @@
       <c r="F73" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>7</v>
+      <c r="G73" s="2">
+        <v>2012</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>188</v>
@@ -10912,11 +10906,11 @@
       <c r="M73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N73" s="4">
-        <v>58000</v>
+      <c r="N73" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="O73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" s="4">
         <v>100</v>
@@ -10925,17 +10919,16 @@
         <v>7</v>
       </c>
       <c r="R73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V73" s="2" t="s">
         <v>7</v>
@@ -10958,11 +10951,11 @@
       <c r="AB73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC73" s="2">
-        <v>-4.3</v>
-      </c>
-      <c r="AD73" s="2">
-        <v>-347</v>
+      <c r="AC73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD73" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AE73" s="2" t="s">
         <v>7</v>
@@ -11003,7 +10996,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>48</v>
@@ -11014,14 +11007,14 @@
       <c r="F74" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>7</v>
+      <c r="G74" s="2">
+        <v>2012</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>7</v>
+      <c r="I74" s="2">
+        <v>6</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>188</v>
@@ -11036,7 +11029,7 @@
         <v>81</v>
       </c>
       <c r="N74" s="4">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="O74" s="2" t="b">
         <v>1</v>
@@ -11044,14 +11037,13 @@
       <c r="P74" s="4">
         <v>100</v>
       </c>
-      <c r="Q74" s="2" t="s">
-        <v>7</v>
+      <c r="Q74" s="2">
+        <v>500</v>
       </c>
       <c r="R74" s="2" t="b">
         <v>1</v>
       </c>
       <c r="S74" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T74" s="2" t="s">
@@ -11081,11 +11073,11 @@
       <c r="AB74" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC74" s="2">
-        <v>-5.8</v>
+      <c r="AC74" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AD74" s="2">
-        <v>-392</v>
+        <v>-404</v>
       </c>
       <c r="AE74" s="2" t="s">
         <v>7</v>
@@ -11126,7 +11118,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>48</v>
@@ -11137,14 +11129,14 @@
       <c r="F75" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>7</v>
+      <c r="G75" s="2">
+        <v>2012</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>7</v>
+      <c r="I75" s="2">
+        <v>8</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>188</v>
@@ -11159,7 +11151,7 @@
         <v>81</v>
       </c>
       <c r="N75" s="4">
-        <v>25000</v>
+        <v>46000</v>
       </c>
       <c r="O75" s="2" t="b">
         <v>1</v>
@@ -11167,14 +11159,13 @@
       <c r="P75" s="4">
         <v>100</v>
       </c>
-      <c r="Q75" s="2" t="s">
-        <v>7</v>
+      <c r="Q75" s="2">
+        <v>100</v>
       </c>
       <c r="R75" s="2" t="b">
         <v>1</v>
       </c>
       <c r="S75" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T75" s="2" t="s">
@@ -11204,11 +11195,11 @@
       <c r="AB75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC75" s="2">
-        <v>-5.6</v>
+      <c r="AC75" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AD75" s="2">
-        <v>-313</v>
+        <v>-391</v>
       </c>
       <c r="AE75" s="2" t="s">
         <v>7</v>
@@ -11249,7 +11240,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>48</v>
@@ -11282,7 +11273,7 @@
         <v>81</v>
       </c>
       <c r="N76" s="4">
-        <v>154000</v>
+        <v>100000</v>
       </c>
       <c r="O76" s="2" t="b">
         <v>1</v>
@@ -11297,7 +11288,6 @@
         <v>1</v>
       </c>
       <c r="S76" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T76" s="2" t="s">
@@ -11328,10 +11318,10 @@
         <v>7</v>
       </c>
       <c r="AC76" s="2">
-        <v>7.9</v>
+        <v>-9.9</v>
       </c>
       <c r="AD76" s="2">
-        <v>-279</v>
+        <v>-319</v>
       </c>
       <c r="AE76" s="2" t="s">
         <v>7</v>
@@ -11372,7 +11362,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>48</v>
@@ -11387,7 +11377,7 @@
         <v>7</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>7</v>
@@ -11405,7 +11395,7 @@
         <v>81</v>
       </c>
       <c r="N77" s="4">
-        <v>159000</v>
+        <v>58000</v>
       </c>
       <c r="O77" s="2" t="b">
         <v>1</v>
@@ -11413,17 +11403,15 @@
       <c r="P77" s="4">
         <v>100</v>
       </c>
-      <c r="Q77" s="2">
-        <f>0.01*10000</f>
+      <c r="Q77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S77" s="2">
         <v>100</v>
       </c>
-      <c r="R77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S77" s="2">
-        <f>100</f>
-        <v>100</v>
-      </c>
       <c r="T77" s="2" t="s">
         <v>7</v>
       </c>
@@ -11452,10 +11440,10 @@
         <v>7</v>
       </c>
       <c r="AC77" s="2">
-        <v>-0.3</v>
+        <v>-4.3</v>
       </c>
       <c r="AD77" s="2">
-        <v>-305</v>
+        <v>-347</v>
       </c>
       <c r="AE77" s="2" t="s">
         <v>7</v>
@@ -11496,7 +11484,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>48</v>
@@ -11511,10 +11499,10 @@
         <v>7</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I78" s="2">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>188</v>
@@ -11529,7 +11517,7 @@
         <v>81</v>
       </c>
       <c r="N78" s="4">
-        <v>57000</v>
+        <v>33000</v>
       </c>
       <c r="O78" s="2" t="b">
         <v>1</v>
@@ -11537,17 +11525,15 @@
       <c r="P78" s="4">
         <v>100</v>
       </c>
-      <c r="Q78" s="2">
-        <f>0.01*10000</f>
+      <c r="Q78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S78" s="2">
         <v>100</v>
       </c>
-      <c r="R78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S78" s="2">
-        <f>100</f>
-        <v>100</v>
-      </c>
       <c r="T78" s="2" t="s">
         <v>7</v>
       </c>
@@ -11575,11 +11561,11 @@
       <c r="AB78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC78" s="2" t="s">
-        <v>7</v>
+      <c r="AC78" s="2">
+        <v>-5.8</v>
       </c>
       <c r="AD78" s="2">
-        <v>-339</v>
+        <v>-392</v>
       </c>
       <c r="AE78" s="2" t="s">
         <v>7</v>
@@ -11620,7 +11606,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>48</v>
@@ -11635,10 +11621,10 @@
         <v>7</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I79" s="2">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>188</v>
@@ -11653,7 +11639,7 @@
         <v>81</v>
       </c>
       <c r="N79" s="4">
-        <v>87000</v>
+        <v>25000</v>
       </c>
       <c r="O79" s="2" t="b">
         <v>1</v>
@@ -11668,7 +11654,6 @@
         <v>1</v>
       </c>
       <c r="S79" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T79" s="2" t="s">
@@ -11698,11 +11683,11 @@
       <c r="AB79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC79" s="2" t="s">
-        <v>7</v>
+      <c r="AC79" s="2">
+        <v>-5.6</v>
       </c>
       <c r="AD79" s="2">
-        <v>-324</v>
+        <v>-313</v>
       </c>
       <c r="AE79" s="2" t="s">
         <v>7</v>
@@ -11743,7 +11728,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>48</v>
@@ -11758,7 +11743,7 @@
         <v>7</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>7</v>
@@ -11776,7 +11761,7 @@
         <v>81</v>
       </c>
       <c r="N80" s="4">
-        <v>2000</v>
+        <v>154000</v>
       </c>
       <c r="O80" s="2" t="b">
         <v>1</v>
@@ -11784,15 +11769,13 @@
       <c r="P80" s="4">
         <v>100</v>
       </c>
-      <c r="Q80" s="2">
-        <f>0.1*10000</f>
-        <v>1000</v>
+      <c r="Q80" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="R80" s="2" t="b">
         <v>1</v>
       </c>
       <c r="S80" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T80" s="2" t="s">
@@ -11822,11 +11805,11 @@
       <c r="AB80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>7</v>
+      <c r="AC80" s="2">
+        <v>7.9</v>
       </c>
       <c r="AD80" s="2">
-        <v>-215</v>
+        <v>-279</v>
       </c>
       <c r="AE80" s="2" t="s">
         <v>7</v>
@@ -11867,7 +11850,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>48</v>
@@ -11882,7 +11865,7 @@
         <v>7</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>7</v>
@@ -11899,8 +11882,8 @@
       <c r="M81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N81" s="2" t="s">
-        <v>7</v>
+      <c r="N81" s="4">
+        <v>159000</v>
       </c>
       <c r="O81" s="2" t="b">
         <v>1</v>
@@ -11908,14 +11891,13 @@
       <c r="P81" s="4">
         <v>100</v>
       </c>
-      <c r="Q81" s="2" t="s">
-        <v>7</v>
+      <c r="Q81" s="2">
+        <v>100</v>
       </c>
       <c r="R81" s="2" t="b">
         <v>1</v>
       </c>
       <c r="S81" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T81" s="2" t="s">
@@ -11945,11 +11927,11 @@
       <c r="AB81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD81" s="2" t="s">
-        <v>7</v>
+      <c r="AC81" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="AD81" s="2">
+        <v>-305</v>
       </c>
       <c r="AE81" s="2" t="s">
         <v>7</v>
@@ -11990,7 +11972,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>48</v>
@@ -12005,10 +11987,10 @@
         <v>7</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="I82" s="2">
+        <v>29</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>188</v>
@@ -12022,8 +12004,8 @@
       <c r="M82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N82" s="2" t="s">
-        <v>7</v>
+      <c r="N82" s="4">
+        <v>57000</v>
       </c>
       <c r="O82" s="2" t="b">
         <v>1</v>
@@ -12031,14 +12013,13 @@
       <c r="P82" s="4">
         <v>100</v>
       </c>
-      <c r="Q82" s="2" t="s">
-        <v>7</v>
+      <c r="Q82" s="2">
+        <v>100</v>
       </c>
       <c r="R82" s="2" t="b">
         <v>1</v>
       </c>
       <c r="S82" s="2">
-        <f>100</f>
         <v>100</v>
       </c>
       <c r="T82" s="2" t="s">
@@ -12071,8 +12052,8 @@
       <c r="AC82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AD82" s="2" t="s">
-        <v>7</v>
+      <c r="AD82" s="2">
+        <v>-339</v>
       </c>
       <c r="AE82" s="2" t="s">
         <v>7</v>
@@ -12107,67 +12088,67 @@
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E83" s="2">
         <v>2018</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G83" s="2">
-        <v>2012</v>
+        <v>47</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>167</v>
+        <v>61</v>
+      </c>
+      <c r="I83" s="2">
+        <v>30</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="N83" s="4">
+        <v>87000</v>
       </c>
       <c r="O83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="P83" s="4">
+        <v>100</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="S83" s="2">
+        <v>100</v>
       </c>
       <c r="T83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U83" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83" s="2" t="s">
         <v>7</v>
@@ -12190,11 +12171,11 @@
       <c r="AB83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC83" s="2">
-        <v>-16.2</v>
+      <c r="AC83" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AD83" s="2">
-        <v>-107.4</v>
+        <v>-324</v>
       </c>
       <c r="AE83" s="2" t="s">
         <v>7</v>
@@ -12208,11 +12189,11 @@
       <c r="AH83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AI83" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="AJ83" s="2">
-        <v>0.35</v>
+      <c r="AI83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ83" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AK83" s="2" t="s">
         <v>7</v>
@@ -12220,76 +12201,76 @@
       <c r="AL83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AM83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN83" s="2">
-        <v>0</v>
+      <c r="AM83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN83" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E84" s="2">
         <v>2018</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G84" s="2">
-        <v>2012</v>
+        <v>47</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
+      </c>
+      <c r="N84" s="4">
+        <v>2000</v>
       </c>
       <c r="O84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="P84" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>1000</v>
       </c>
       <c r="R84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S84" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="S84" s="2">
+        <v>100</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U84" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V84" s="2" t="s">
         <v>7</v>
@@ -12312,11 +12293,11 @@
       <c r="AB84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC84" s="2">
-        <v>-16.399999999999999</v>
+      <c r="AC84" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AD84" s="2">
-        <v>-106.6</v>
+        <v>-215</v>
       </c>
       <c r="AE84" s="2" t="s">
         <v>7</v>
@@ -12330,11 +12311,11 @@
       <c r="AH84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AI84" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="AJ84" s="2">
-        <v>0.6</v>
+      <c r="AI84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ84" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AK84" s="2" t="s">
         <v>7</v>
@@ -12342,76 +12323,76 @@
       <c r="AL84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AM84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN84" s="2">
-        <v>0</v>
+      <c r="AM84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN84" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E85" s="2">
         <v>2018</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G85" s="2">
-        <v>2012</v>
+        <v>47</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="P85" s="4">
+        <v>100</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="S85" s="2">
+        <v>100</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U85" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85" s="2" t="s">
         <v>7</v>
@@ -12434,11 +12415,11 @@
       <c r="AB85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC85" s="2">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="AD85" s="2">
-        <v>-106.5</v>
+      <c r="AC85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD85" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AE85" s="2" t="s">
         <v>7</v>
@@ -12452,11 +12433,11 @@
       <c r="AH85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AI85" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="AJ85" s="2">
-        <v>0.6</v>
+      <c r="AI85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ85" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AK85" s="2" t="s">
         <v>7</v>
@@ -12464,76 +12445,76 @@
       <c r="AL85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AM85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN85" s="2">
-        <v>0</v>
+      <c r="AM85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN85" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E86" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="P86" s="4">
+        <v>100</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="S86" s="2">
+        <v>100</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U86" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>7</v>
@@ -12556,11 +12537,11 @@
       <c r="AB86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC86" s="2">
-        <v>-37.393000000000001</v>
-      </c>
-      <c r="AD86" s="2">
-        <v>-417.8</v>
+      <c r="AC86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD86" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AE86" s="2" t="s">
         <v>7</v>
@@ -12574,17 +12555,17 @@
       <c r="AH86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AI86" s="2">
-        <v>3.08</v>
-      </c>
-      <c r="AJ86" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="AK86" s="2">
-        <v>-53.69</v>
-      </c>
-      <c r="AL86" s="2">
-        <v>0.54</v>
+      <c r="AI86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL86" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AM86" s="2" t="s">
         <v>7</v>
@@ -12595,37 +12576,37 @@
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+      <c r="G87" s="2">
+        <v>2012</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>7</v>
@@ -12679,10 +12660,10 @@
         <v>7</v>
       </c>
       <c r="AC87" s="2">
-        <v>-43.094999999999999</v>
+        <v>-16.2</v>
       </c>
       <c r="AD87" s="2">
-        <v>-434.02</v>
+        <v>-107.4</v>
       </c>
       <c r="AE87" s="2" t="s">
         <v>7</v>
@@ -12697,57 +12678,57 @@
         <v>7</v>
       </c>
       <c r="AI87" s="2">
-        <v>4.2</v>
+        <v>1.71</v>
       </c>
       <c r="AJ87" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="AK87" s="2">
-        <v>-55.86</v>
-      </c>
-      <c r="AL87" s="2">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="AM87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN87" s="2" t="s">
-        <v>7</v>
+        <v>0.35</v>
+      </c>
+      <c r="AK87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+      <c r="G88" s="2">
+        <v>2012</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>7</v>
@@ -12801,10 +12782,10 @@
         <v>7</v>
       </c>
       <c r="AC88" s="2">
-        <v>-41.404000000000003</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="AD88" s="2">
-        <v>-389.52</v>
+        <v>-106.6</v>
       </c>
       <c r="AE88" s="2" t="s">
         <v>7</v>
@@ -12819,57 +12800,57 @@
         <v>7</v>
       </c>
       <c r="AI88" s="2">
-        <v>5.34</v>
+        <v>1.56</v>
       </c>
       <c r="AJ88" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="AK88" s="2">
-        <v>14.86</v>
-      </c>
-      <c r="AL88" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.6</v>
+      </c>
+      <c r="AK88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL88" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AM88" s="2">
-        <v>-35.68</v>
-      </c>
-      <c r="AN88" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="AN88" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+      <c r="G89" s="2">
+        <v>2012</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>7</v>
@@ -12923,10 +12904,10 @@
         <v>7</v>
       </c>
       <c r="AC89" s="2">
-        <v>-39.643999999999998</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="AD89" s="2">
-        <v>-391.46</v>
+        <v>-106.5</v>
       </c>
       <c r="AE89" s="2" t="s">
         <v>7</v>
@@ -12941,30 +12922,30 @@
         <v>7</v>
       </c>
       <c r="AI89" s="2">
-        <v>5.75</v>
+        <v>1.35</v>
       </c>
       <c r="AJ89" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AK89" s="2">
-        <v>17.98</v>
-      </c>
-      <c r="AL89" s="2">
-        <v>0.27</v>
+        <v>0.6</v>
+      </c>
+      <c r="AK89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL89" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AM89" s="2">
-        <v>-34.42</v>
-      </c>
-      <c r="AN89" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="AN89" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>7</v>
@@ -12985,13 +12966,13 @@
         <v>7</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>7</v>
@@ -13045,10 +13026,10 @@
         <v>7</v>
       </c>
       <c r="AC90" s="2">
-        <v>-38.734999999999999</v>
+        <v>-37.393000000000001</v>
       </c>
       <c r="AD90" s="2">
-        <v>-411.67</v>
+        <v>-417.8</v>
       </c>
       <c r="AE90" s="2" t="s">
         <v>7</v>
@@ -13063,19 +13044,19 @@
         <v>7</v>
       </c>
       <c r="AI90" s="2">
-        <v>5.81</v>
+        <v>3.08</v>
       </c>
       <c r="AJ90" s="2">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="AK90" s="2">
-        <v>16.39</v>
+        <v>-53.69</v>
       </c>
       <c r="AL90" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="AM90" s="2">
-        <v>-33.43</v>
+        <v>0.54</v>
+      </c>
+      <c r="AM90" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AN90" s="2" t="s">
         <v>7</v>
@@ -13083,10 +13064,10 @@
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>7</v>
@@ -13107,13 +13088,13 @@
         <v>7</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>7</v>
@@ -13167,10 +13148,10 @@
         <v>7</v>
       </c>
       <c r="AC91" s="2">
-        <v>-41.857999999999997</v>
+        <v>-43.094999999999999</v>
       </c>
       <c r="AD91" s="2">
-        <v>-391.54</v>
+        <v>-434.02</v>
       </c>
       <c r="AE91" s="2" t="s">
         <v>7</v>
@@ -13185,16 +13166,16 @@
         <v>7</v>
       </c>
       <c r="AI91" s="2">
-        <v>5.03</v>
+        <v>4.2</v>
       </c>
       <c r="AJ91" s="2">
-        <v>0.12</v>
+        <v>0.52</v>
       </c>
       <c r="AK91" s="2">
-        <v>14.03</v>
+        <v>-55.86</v>
       </c>
       <c r="AL91" s="2">
-        <v>0.32</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="AM91" s="2" t="s">
         <v>7</v>
@@ -13229,7 +13210,7 @@
         <v>7</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>188</v>
@@ -13289,10 +13270,10 @@
         <v>7</v>
       </c>
       <c r="AC92" s="2">
-        <v>-32.597999999999999</v>
+        <v>-41.404000000000003</v>
       </c>
       <c r="AD92" s="2">
-        <v>-422.25</v>
+        <v>-389.52</v>
       </c>
       <c r="AE92" s="2" t="s">
         <v>7</v>
@@ -13307,19 +13288,19 @@
         <v>7</v>
       </c>
       <c r="AI92" s="2">
-        <v>5.58</v>
+        <v>5.34</v>
       </c>
       <c r="AJ92" s="2">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AK92" s="2">
-        <v>-6.27</v>
+        <v>14.86</v>
       </c>
       <c r="AL92" s="2">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AM92" s="2">
-        <v>-29.31</v>
+        <v>-35.68</v>
       </c>
       <c r="AN92" s="2" t="s">
         <v>7</v>
@@ -13351,7 +13332,7 @@
         <v>7</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>188</v>
@@ -13411,10 +13392,10 @@
         <v>7</v>
       </c>
       <c r="AC93" s="2">
-        <v>-32.146999999999998</v>
+        <v>-39.643999999999998</v>
       </c>
       <c r="AD93" s="2">
-        <v>-429.34</v>
+        <v>-391.46</v>
       </c>
       <c r="AE93" s="2" t="s">
         <v>7</v>
@@ -13429,19 +13410,19 @@
         <v>7</v>
       </c>
       <c r="AI93" s="2">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="AJ93" s="2">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AK93" s="2">
-        <v>-9.91</v>
+        <v>17.98</v>
       </c>
       <c r="AL93" s="2">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="AM93" s="2">
-        <v>-30.89</v>
+        <v>-34.42</v>
       </c>
       <c r="AN93" s="2" t="s">
         <v>7</v>
@@ -13473,7 +13454,7 @@
         <v>7</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>188</v>
@@ -13533,10 +13514,10 @@
         <v>7</v>
       </c>
       <c r="AC94" s="2">
-        <v>-35.918999999999997</v>
+        <v>-38.734999999999999</v>
       </c>
       <c r="AD94" s="2">
-        <v>-421.25</v>
+        <v>-411.67</v>
       </c>
       <c r="AE94" s="2" t="s">
         <v>7</v>
@@ -13551,19 +13532,19 @@
         <v>7</v>
       </c>
       <c r="AI94" s="2">
-        <v>6</v>
+        <v>5.81</v>
       </c>
       <c r="AJ94" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AK94" s="2">
-        <v>5.25</v>
+        <v>16.39</v>
       </c>
       <c r="AL94" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="AM94" s="2">
-        <v>-77.28</v>
+        <v>-33.43</v>
       </c>
       <c r="AN94" s="2" t="s">
         <v>7</v>
@@ -13595,7 +13576,7 @@
         <v>7</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>188</v>
@@ -13655,10 +13636,10 @@
         <v>7</v>
       </c>
       <c r="AC95" s="2">
-        <v>-32.709000000000003</v>
+        <v>-41.857999999999997</v>
       </c>
       <c r="AD95" s="2">
-        <v>-420.75</v>
+        <v>-391.54</v>
       </c>
       <c r="AE95" s="2" t="s">
         <v>7</v>
@@ -13673,16 +13654,16 @@
         <v>7</v>
       </c>
       <c r="AI95" s="2">
-        <v>5.19</v>
+        <v>5.03</v>
       </c>
       <c r="AJ95" s="2">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AK95" s="2">
-        <v>-6.34</v>
+        <v>14.03</v>
       </c>
       <c r="AL95" s="2">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="AM95" s="2" t="s">
         <v>7</v>
@@ -13717,7 +13698,7 @@
         <v>7</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>188</v>
@@ -13777,10 +13758,10 @@
         <v>7</v>
       </c>
       <c r="AC96" s="2">
-        <v>-34.299999999999997</v>
+        <v>-32.597999999999999</v>
       </c>
       <c r="AD96" s="2">
-        <v>-419.85</v>
+        <v>-422.25</v>
       </c>
       <c r="AE96" s="2" t="s">
         <v>7</v>
@@ -13795,19 +13776,19 @@
         <v>7</v>
       </c>
       <c r="AI96" s="2">
-        <v>5.37</v>
+        <v>5.58</v>
       </c>
       <c r="AJ96" s="2">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AK96" s="2">
-        <v>4.05</v>
+        <v>-6.27</v>
       </c>
       <c r="AL96" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="AM96" s="2" t="s">
-        <v>7</v>
+        <v>0.25</v>
+      </c>
+      <c r="AM96" s="2">
+        <v>-29.31</v>
       </c>
       <c r="AN96" s="2" t="s">
         <v>7</v>
@@ -13839,7 +13820,7 @@
         <v>7</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>188</v>
@@ -13899,10 +13880,10 @@
         <v>7</v>
       </c>
       <c r="AC97" s="2">
-        <v>-31.786999999999999</v>
+        <v>-32.146999999999998</v>
       </c>
       <c r="AD97" s="2">
-        <v>-420.01</v>
+        <v>-429.34</v>
       </c>
       <c r="AE97" s="2" t="s">
         <v>7</v>
@@ -13917,19 +13898,19 @@
         <v>7</v>
       </c>
       <c r="AI97" s="2">
-        <v>5.26</v>
+        <v>5.76</v>
       </c>
       <c r="AJ97" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AK97" s="2">
-        <v>-8.4499999999999993</v>
+        <v>-9.91</v>
       </c>
       <c r="AL97" s="2">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="AM97" s="2">
-        <v>-28.37</v>
+        <v>-30.89</v>
       </c>
       <c r="AN97" s="2" t="s">
         <v>7</v>
@@ -13946,13 +13927,13 @@
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>7</v>
@@ -13961,7 +13942,7 @@
         <v>7</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>188</v>
@@ -14021,10 +14002,10 @@
         <v>7</v>
       </c>
       <c r="AC98" s="2">
-        <v>-32.659999999999997</v>
+        <v>-35.918999999999997</v>
       </c>
       <c r="AD98" s="2">
-        <v>-420.74</v>
+        <v>-421.25</v>
       </c>
       <c r="AE98" s="2" t="s">
         <v>7</v>
@@ -14039,19 +14020,19 @@
         <v>7</v>
       </c>
       <c r="AI98" s="2">
-        <v>4.38</v>
+        <v>6</v>
       </c>
       <c r="AJ98" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="AK98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL98" s="2" t="s">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK98" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="AL98" s="2">
+        <v>0.28999999999999998</v>
       </c>
       <c r="AM98" s="2">
-        <v>-34</v>
+        <v>-77.28</v>
       </c>
       <c r="AN98" s="2" t="s">
         <v>7</v>
@@ -14068,13 +14049,13 @@
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E99" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>7</v>
@@ -14083,7 +14064,7 @@
         <v>7</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>188</v>
@@ -14143,10 +14124,10 @@
         <v>7</v>
       </c>
       <c r="AC99" s="2">
-        <v>-32.28</v>
+        <v>-32.709000000000003</v>
       </c>
       <c r="AD99" s="2">
-        <v>-419.74</v>
+        <v>-420.75</v>
       </c>
       <c r="AE99" s="2" t="s">
         <v>7</v>
@@ -14161,19 +14142,19 @@
         <v>7</v>
       </c>
       <c r="AI99" s="2">
-        <v>4.07</v>
+        <v>5.19</v>
       </c>
       <c r="AJ99" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AK99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM99" s="2">
-        <v>-34</v>
+        <v>0.13</v>
+      </c>
+      <c r="AK99" s="2">
+        <v>-6.34</v>
+      </c>
+      <c r="AL99" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="AM99" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AN99" s="2" t="s">
         <v>7</v>
@@ -14190,13 +14171,13 @@
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>7</v>
@@ -14205,7 +14186,7 @@
         <v>7</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>188</v>
@@ -14265,10 +14246,10 @@
         <v>7</v>
       </c>
       <c r="AC100" s="2">
-        <v>-39.11</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="AD100" s="2">
-        <v>-397.33</v>
+        <v>-419.85</v>
       </c>
       <c r="AE100" s="2" t="s">
         <v>7</v>
@@ -14283,19 +14264,19 @@
         <v>7</v>
       </c>
       <c r="AI100" s="2">
-        <v>4.51</v>
+        <v>5.37</v>
       </c>
       <c r="AJ100" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="AK100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM100" s="2">
-        <v>-34</v>
+        <v>0.11</v>
+      </c>
+      <c r="AK100" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="AL100" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="AM100" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="AN100" s="2" t="s">
         <v>7</v>
@@ -14312,13 +14293,13 @@
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>7</v>
@@ -14327,7 +14308,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>188</v>
@@ -14387,10 +14368,10 @@
         <v>7</v>
       </c>
       <c r="AC101" s="2">
-        <v>-39.729999999999997</v>
+        <v>-31.786999999999999</v>
       </c>
       <c r="AD101" s="2">
-        <v>-397.39</v>
+        <v>-420.01</v>
       </c>
       <c r="AE101" s="2" t="s">
         <v>7</v>
@@ -14405,19 +14386,19 @@
         <v>7</v>
       </c>
       <c r="AI101" s="2">
-        <v>4.34</v>
+        <v>5.26</v>
       </c>
       <c r="AJ101" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="AK101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL101" s="2" t="s">
-        <v>7</v>
+        <v>0.12</v>
+      </c>
+      <c r="AK101" s="2">
+        <v>-8.4499999999999993</v>
+      </c>
+      <c r="AL101" s="2">
+        <v>0.31</v>
       </c>
       <c r="AM101" s="2">
-        <v>-34</v>
+        <v>-28.37</v>
       </c>
       <c r="AN101" s="2" t="s">
         <v>7</v>
@@ -14449,7 +14430,7 @@
         <v>7</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>188</v>
@@ -14509,10 +14490,10 @@
         <v>7</v>
       </c>
       <c r="AC102" s="2">
-        <v>-40.19</v>
+        <v>-32.659999999999997</v>
       </c>
       <c r="AD102" s="2">
-        <v>-394.98</v>
+        <v>-420.74</v>
       </c>
       <c r="AE102" s="2" t="s">
         <v>7</v>
@@ -14527,10 +14508,10 @@
         <v>7</v>
       </c>
       <c r="AI102" s="2">
-        <v>4.1100000000000003</v>
+        <v>4.38</v>
       </c>
       <c r="AJ102" s="2">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="AK102" s="2" t="s">
         <v>7</v>
@@ -14571,7 +14552,7 @@
         <v>7</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>188</v>
@@ -14631,10 +14612,10 @@
         <v>7</v>
       </c>
       <c r="AC103" s="2">
-        <v>-39.72</v>
+        <v>-32.28</v>
       </c>
       <c r="AD103" s="2">
-        <v>-390.12</v>
+        <v>-419.74</v>
       </c>
       <c r="AE103" s="2" t="s">
         <v>7</v>
@@ -14649,10 +14630,10 @@
         <v>7</v>
       </c>
       <c r="AI103" s="2">
-        <v>4.47</v>
+        <v>4.07</v>
       </c>
       <c r="AJ103" s="2">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AK103" s="2" t="s">
         <v>7</v>
@@ -14693,7 +14674,7 @@
         <v>7</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>188</v>
@@ -14753,10 +14734,10 @@
         <v>7</v>
       </c>
       <c r="AC104" s="2">
-        <v>-39.72</v>
+        <v>-39.11</v>
       </c>
       <c r="AD104" s="2">
-        <v>-390.12</v>
+        <v>-397.33</v>
       </c>
       <c r="AE104" s="2" t="s">
         <v>7</v>
@@ -14771,10 +14752,10 @@
         <v>7</v>
       </c>
       <c r="AI104" s="2">
-        <v>4.07</v>
+        <v>4.51</v>
       </c>
       <c r="AJ104" s="2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AK104" s="2" t="s">
         <v>7</v>
@@ -14815,7 +14796,7 @@
         <v>7</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>188</v>
@@ -14875,10 +14856,10 @@
         <v>7</v>
       </c>
       <c r="AC105" s="2">
-        <v>-40.64</v>
+        <v>-39.729999999999997</v>
       </c>
       <c r="AD105" s="2">
-        <v>-386.48</v>
+        <v>-397.39</v>
       </c>
       <c r="AE105" s="2" t="s">
         <v>7</v>
@@ -14893,10 +14874,10 @@
         <v>7</v>
       </c>
       <c r="AI105" s="2">
-        <v>4.3600000000000003</v>
+        <v>4.34</v>
       </c>
       <c r="AJ105" s="2">
-        <v>0.22</v>
+        <v>0.52</v>
       </c>
       <c r="AK105" s="2" t="s">
         <v>7</v>
@@ -14937,7 +14918,7 @@
         <v>7</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>188</v>
@@ -14997,10 +14978,10 @@
         <v>7</v>
       </c>
       <c r="AC106" s="2">
-        <v>-40.25</v>
+        <v>-40.19</v>
       </c>
       <c r="AD106" s="2">
-        <v>-395.07</v>
+        <v>-394.98</v>
       </c>
       <c r="AE106" s="2" t="s">
         <v>7</v>
@@ -15015,10 +14996,10 @@
         <v>7</v>
       </c>
       <c r="AI106" s="2">
-        <v>4.2300000000000004</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="AJ106" s="2">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="AK106" s="2" t="s">
         <v>7</v>
@@ -15059,7 +15040,7 @@
         <v>7</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>188</v>
@@ -15119,10 +15100,10 @@
         <v>7</v>
       </c>
       <c r="AC107" s="2">
-        <v>-41.44</v>
+        <v>-39.72</v>
       </c>
       <c r="AD107" s="2">
-        <v>-388.32</v>
+        <v>-390.12</v>
       </c>
       <c r="AE107" s="2" t="s">
         <v>7</v>
@@ -15137,10 +15118,10 @@
         <v>7</v>
       </c>
       <c r="AI107" s="2">
-        <v>4.87</v>
+        <v>4.47</v>
       </c>
       <c r="AJ107" s="2">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="AK107" s="2" t="s">
         <v>7</v>
@@ -15152,6 +15133,494 @@
         <v>-34</v>
       </c>
       <c r="AN107" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC108" s="2">
+        <v>-39.72</v>
+      </c>
+      <c r="AD108" s="2">
+        <v>-390.12</v>
+      </c>
+      <c r="AE108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI108" s="2">
+        <v>4.07</v>
+      </c>
+      <c r="AJ108" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="AK108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM108" s="2">
+        <v>-34</v>
+      </c>
+      <c r="AN108" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC109" s="2">
+        <v>-40.64</v>
+      </c>
+      <c r="AD109" s="2">
+        <v>-386.48</v>
+      </c>
+      <c r="AE109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI109" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="AJ109" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="AK109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM109" s="2">
+        <v>-34</v>
+      </c>
+      <c r="AN109" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC110" s="2">
+        <v>-40.25</v>
+      </c>
+      <c r="AD110" s="2">
+        <v>-395.07</v>
+      </c>
+      <c r="AE110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI110" s="2">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AJ110" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AK110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM110" s="2">
+        <v>-34</v>
+      </c>
+      <c r="AN110" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC111" s="2">
+        <v>-41.44</v>
+      </c>
+      <c r="AD111" s="2">
+        <v>-388.32</v>
+      </c>
+      <c r="AE111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI111" s="2">
+        <v>4.87</v>
+      </c>
+      <c r="AJ111" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="AK111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM111" s="2">
+        <v>-34</v>
+      </c>
+      <c r="AN111" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data_raw/Summary_metadata/CH4_isotope_literature_data.xlsx
+++ b/data_raw/Summary_metadata/CH4_isotope_literature_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/thesis_prep/manuscripts/Origin_CH4_Oman/Oman_CH4_stable_isotopes/data_raw/Summary_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/thesis_prep/manuscripts/Oman-14CH4/Oman-14CH4/data_raw/Summary_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AD0038-26EB-B64D-B4D9-0F4012CA87C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0C358E-C6E0-8248-9249-B00AC88F5018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="38380" windowHeight="20900" xr2:uid="{C497D531-2103-744A-A064-AEE7AD03DBBB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t>KC_20.09.2013_7850L_BH12287A(B)</t>
-  </si>
-  <si>
-    <t>﻿−11.6</t>
   </si>
   <si>
     <t>Sabatier reaction 70˚C to 90˚C</t>
@@ -621,6 +618,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -658,12 +658,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,6 +687,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1724,16 +1726,16 @@
     <tableColumn id="28" xr3:uid="{6877762C-AA07-8146-94E2-C86668195544}" name="n_C5H12_LQ" dataDxfId="12"/>
     <tableColumn id="29" xr3:uid="{AE4F99C1-CCB6-5F41-94E9-2B833A2D14D5}" name="CH4_d13C_permil_VPDB" dataDxfId="11"/>
     <tableColumn id="30" xr3:uid="{A8EC08D5-3511-5148-AD1A-2C4839C4D984}" name="CH4_dD_permil_VSMOW" dataDxfId="10"/>
-    <tableColumn id="31" xr3:uid="{855DA809-5124-8045-AE2F-AA5E33ED7A6E}" name="C2H6_d13C_permil_VPDB" dataDxfId="9"/>
-    <tableColumn id="32" xr3:uid="{90155716-3A43-044A-ADCC-F5129357DCA2}" name="C3H8_d13C_permil_VPDB" dataDxfId="8"/>
-    <tableColumn id="33" xr3:uid="{D91A5F84-AAF9-6D48-8BDA-3ADFDA86FFD2}" name="n_C4H10_d13C_permil_VPDB" dataDxfId="7"/>
-    <tableColumn id="34" xr3:uid="{3E77AEC8-A1B0-A84D-8814-9B6A23359AB9}" name="n_C5H12_d13C_permil_VPDB" dataDxfId="6"/>
-    <tableColumn id="35" xr3:uid="{12D36E17-9AE6-6F46-8446-7EDBEB8BD711}" name="cap13CH3D_permil" dataDxfId="5"/>
-    <tableColumn id="36" xr3:uid="{B5E83824-1013-A64A-B24F-F46143A09DA4}" name="cap13CH3D_unc_permil" dataDxfId="4"/>
-    <tableColumn id="37" xr3:uid="{45D9EAC5-ECC6-5D45-8C75-10F007221788}" name="cap12CH2D2_permil" dataDxfId="3"/>
-    <tableColumn id="38" xr3:uid="{73089BAA-5901-3944-B2C3-575DB267F6E1}" name="cap12CH2D2_unc_permil" dataDxfId="2"/>
-    <tableColumn id="39" xr3:uid="{88675ECE-3494-F747-9D88-D40781FE2C3E}" name="H2O_dD_permil_VSMOW" dataDxfId="1"/>
-    <tableColumn id="40" xr3:uid="{4483CE0C-F801-334C-89B0-49750D74DE64}" name="H2O_d18O_permil_VPDB" dataDxfId="0"/>
+    <tableColumn id="31" xr3:uid="{855DA809-5124-8045-AE2F-AA5E33ED7A6E}" name="C2H6_d13C_permil_VPDB" dataDxfId="2"/>
+    <tableColumn id="32" xr3:uid="{90155716-3A43-044A-ADCC-F5129357DCA2}" name="C3H8_d13C_permil_VPDB" dataDxfId="0"/>
+    <tableColumn id="33" xr3:uid="{D91A5F84-AAF9-6D48-8BDA-3ADFDA86FFD2}" name="n_C4H10_d13C_permil_VPDB" dataDxfId="1"/>
+    <tableColumn id="34" xr3:uid="{3E77AEC8-A1B0-A84D-8814-9B6A23359AB9}" name="n_C5H12_d13C_permil_VPDB" dataDxfId="9"/>
+    <tableColumn id="35" xr3:uid="{12D36E17-9AE6-6F46-8446-7EDBEB8BD711}" name="cap13CH3D_permil" dataDxfId="8"/>
+    <tableColumn id="36" xr3:uid="{B5E83824-1013-A64A-B24F-F46143A09DA4}" name="cap13CH3D_unc_permil" dataDxfId="7"/>
+    <tableColumn id="37" xr3:uid="{45D9EAC5-ECC6-5D45-8C75-10F007221788}" name="cap12CH2D2_permil" dataDxfId="6"/>
+    <tableColumn id="38" xr3:uid="{73089BAA-5901-3944-B2C3-575DB267F6E1}" name="cap12CH2D2_unc_permil" dataDxfId="5"/>
+    <tableColumn id="39" xr3:uid="{88675ECE-3494-F747-9D88-D40781FE2C3E}" name="H2O_dD_permil_VSMOW" dataDxfId="4"/>
+    <tableColumn id="40" xr3:uid="{4483CE0C-F801-334C-89B0-49750D74DE64}" name="H2O_d18O_permil_VPDB" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2039,10 +2041,10 @@
   <dimension ref="A1:AN111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="AB56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="AD40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="AF55" sqref="AF55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2230,10 +2232,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -2298,7 +2300,7 @@
       <c r="AE2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -2355,7 +2357,7 @@
         <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -2420,7 +2422,7 @@
       <c r="AE3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG3" s="2" t="s">
@@ -2477,7 +2479,7 @@
         <v>79</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -2542,7 +2544,7 @@
       <c r="AE4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AF4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG4" s="2" t="s">
@@ -2599,7 +2601,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>36</v>
@@ -2664,7 +2666,7 @@
       <c r="AE5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AF5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG5" s="2" t="s">
@@ -2721,7 +2723,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>36</v>
@@ -2786,7 +2788,7 @@
       <c r="AE6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AF6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG6" s="2" t="s">
@@ -2843,7 +2845,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>36</v>
@@ -2908,7 +2910,7 @@
       <c r="AE7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AF7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG7" s="2" t="s">
@@ -2965,7 +2967,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>37</v>
@@ -3030,7 +3032,7 @@
       <c r="AE8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AF8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG8" s="2" t="s">
@@ -3087,7 +3089,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>37</v>
@@ -3152,7 +3154,7 @@
       <c r="AE9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AF9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG9" s="2" t="s">
@@ -3209,7 +3211,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>38</v>
@@ -3274,7 +3276,7 @@
       <c r="AE10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AF10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG10" s="2" t="s">
@@ -3331,7 +3333,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>38</v>
@@ -3396,7 +3398,7 @@
       <c r="AE11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AF11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG11" s="2" t="s">
@@ -3453,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>38</v>
@@ -3518,7 +3520,7 @@
       <c r="AE12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AF12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG12" s="2" t="s">
@@ -3575,7 +3577,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>38</v>
@@ -3640,7 +3642,7 @@
       <c r="AE13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AF13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG13" s="2" t="s">
@@ -3697,7 +3699,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>39</v>
@@ -3762,7 +3764,7 @@
       <c r="AE14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AF14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG14" s="2" t="s">
@@ -3819,7 +3821,7 @@
         <v>7</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>39</v>
@@ -3884,7 +3886,7 @@
       <c r="AE15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF15" s="2" t="s">
+      <c r="AF15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG15" s="2" t="s">
@@ -3941,7 +3943,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>39</v>
@@ -4006,7 +4008,7 @@
       <c r="AE16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AF16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG16" s="2" t="s">
@@ -4063,7 +4065,7 @@
         <v>7</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>40</v>
@@ -4128,7 +4130,7 @@
       <c r="AE17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AF17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG17" s="2" t="s">
@@ -4185,7 +4187,7 @@
         <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>40</v>
@@ -4250,7 +4252,7 @@
       <c r="AE18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF18" s="2" t="s">
+      <c r="AF18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG18" s="2" t="s">
@@ -4307,7 +4309,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>40</v>
@@ -4372,7 +4374,7 @@
       <c r="AE19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AF19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG19" s="2" t="s">
@@ -4429,7 +4431,7 @@
         <v>7</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>40</v>
@@ -4494,7 +4496,7 @@
       <c r="AE20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AF20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG20" s="2" t="s">
@@ -4551,7 +4553,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>40</v>
@@ -4616,7 +4618,7 @@
       <c r="AE21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AF21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG21" s="2" t="s">
@@ -4673,7 +4675,7 @@
         <v>7</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>40</v>
@@ -4738,7 +4740,7 @@
       <c r="AE22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF22" s="2" t="s">
+      <c r="AF22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG22" s="2" t="s">
@@ -4795,7 +4797,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>40</v>
@@ -4860,7 +4862,7 @@
       <c r="AE23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF23" s="2" t="s">
+      <c r="AF23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG23" s="2" t="s">
@@ -4917,7 +4919,7 @@
         <v>7</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>41</v>
@@ -4982,7 +4984,7 @@
       <c r="AE24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF24" s="2" t="s">
+      <c r="AF24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG24" s="2" t="s">
@@ -5039,7 +5041,7 @@
         <v>7</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>41</v>
@@ -5104,7 +5106,7 @@
       <c r="AE25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF25" s="2" t="s">
+      <c r="AF25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG25" s="2" t="s">
@@ -5161,7 +5163,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>24</v>
@@ -5226,7 +5228,7 @@
       <c r="AE26" s="2">
         <v>-2</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF26" s="5">
         <v>8.3000000000000007</v>
       </c>
       <c r="AG26" s="2">
@@ -5283,7 +5285,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>24</v>
@@ -5348,7 +5350,7 @@
       <c r="AE27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF27" s="2" t="s">
+      <c r="AF27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG27" s="2" t="s">
@@ -5405,7 +5407,7 @@
         <v>7</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>24</v>
@@ -5470,7 +5472,7 @@
       <c r="AE28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF28" s="2" t="s">
+      <c r="AF28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG28" s="2" t="s">
@@ -5527,7 +5529,7 @@
         <v>21</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>24</v>
@@ -5592,7 +5594,7 @@
       <c r="AE29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF29" s="2" t="s">
+      <c r="AF29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG29" s="2" t="s">
@@ -5649,7 +5651,7 @@
         <v>22</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>24</v>
@@ -5714,7 +5716,7 @@
       <c r="AE30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF30" s="2" t="s">
+      <c r="AF30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG30" s="2" t="s">
@@ -5771,7 +5773,7 @@
         <v>23</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>24</v>
@@ -5836,7 +5838,7 @@
       <c r="AE31" s="2">
         <v>-11.4</v>
       </c>
-      <c r="AF31" s="2" t="s">
+      <c r="AF31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG31" s="2" t="s">
@@ -5881,7 +5883,7 @@
         <v>2020</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>7</v>
@@ -5958,7 +5960,7 @@
       <c r="AE32" s="2">
         <v>-0.9</v>
       </c>
-      <c r="AF32" s="2" t="s">
+      <c r="AF32" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG32" s="2" t="s">
@@ -6003,7 +6005,7 @@
         <v>2020</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>7</v>
@@ -6080,7 +6082,7 @@
       <c r="AE33" s="2">
         <v>-1.2</v>
       </c>
-      <c r="AF33" s="2" t="s">
+      <c r="AF33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG33" s="2" t="s">
@@ -6125,7 +6127,7 @@
         <v>2020</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>7</v>
@@ -6202,7 +6204,7 @@
       <c r="AE34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF34" s="2" t="s">
+      <c r="AF34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG34" s="2" t="s">
@@ -6247,7 +6249,7 @@
         <v>2020</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>7</v>
@@ -6324,7 +6326,7 @@
       <c r="AE35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF35" s="2" t="s">
+      <c r="AF35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG35" s="2" t="s">
@@ -6369,7 +6371,7 @@
         <v>2020</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>7</v>
@@ -6446,7 +6448,7 @@
       <c r="AE36" s="2">
         <v>-12.5</v>
       </c>
-      <c r="AF36" s="2" t="s">
+      <c r="AF36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG36" s="2" t="s">
@@ -6491,7 +6493,7 @@
         <v>2020</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>7</v>
@@ -6568,7 +6570,7 @@
       <c r="AE37" s="2">
         <v>0.7</v>
       </c>
-      <c r="AF37" s="2" t="s">
+      <c r="AF37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG37" s="2" t="s">
@@ -6613,7 +6615,7 @@
         <v>2020</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>7</v>
@@ -6690,7 +6692,7 @@
       <c r="AE38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF38" s="2" t="s">
+      <c r="AF38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG38" s="2" t="s">
@@ -6735,7 +6737,7 @@
         <v>2020</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>7</v>
@@ -6812,7 +6814,7 @@
       <c r="AE39" s="2">
         <v>-10.6</v>
       </c>
-      <c r="AF39" s="2" t="s">
+      <c r="AF39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG39" s="2" t="s">
@@ -6857,7 +6859,7 @@
         <v>2020</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>7</v>
@@ -6934,7 +6936,7 @@
       <c r="AE40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF40" s="2" t="s">
+      <c r="AF40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG40" s="2" t="s">
@@ -6979,7 +6981,7 @@
         <v>2020</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>7</v>
@@ -7056,7 +7058,7 @@
       <c r="AE41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF41" s="2" t="s">
+      <c r="AF41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG41" s="2" t="s">
@@ -7101,7 +7103,7 @@
         <v>2020</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>7</v>
@@ -7178,7 +7180,7 @@
       <c r="AE42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF42" s="2" t="s">
+      <c r="AF42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG42" s="2" t="s">
@@ -7235,7 +7237,7 @@
         <v>145</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>24</v>
@@ -7300,7 +7302,7 @@
       <c r="AE43" s="2">
         <v>-12.9</v>
       </c>
-      <c r="AF43" s="2">
+      <c r="AF43" s="5">
         <v>-9.8000000000000007</v>
       </c>
       <c r="AG43" s="2" t="s">
@@ -7357,7 +7359,7 @@
         <v>155</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>24</v>
@@ -7422,7 +7424,7 @@
       <c r="AE44" s="2">
         <v>-12.3</v>
       </c>
-      <c r="AF44" s="2" t="s">
+      <c r="AF44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG44" s="2" t="s">
@@ -7479,7 +7481,7 @@
         <v>156</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>24</v>
@@ -7544,7 +7546,7 @@
       <c r="AE45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF45" s="2" t="s">
+      <c r="AF45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG45" s="2" t="s">
@@ -7601,7 +7603,7 @@
         <v>157</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>24</v>
@@ -7666,7 +7668,7 @@
       <c r="AE46" s="2">
         <v>-13.2</v>
       </c>
-      <c r="AF46" s="2">
+      <c r="AF46" s="5">
         <v>-10.8</v>
       </c>
       <c r="AG46" s="2" t="s">
@@ -7723,7 +7725,7 @@
         <v>158</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>24</v>
@@ -7788,7 +7790,7 @@
       <c r="AE47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF47" s="2" t="s">
+      <c r="AF47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG47" s="2" t="s">
@@ -7845,7 +7847,7 @@
         <v>159</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>24</v>
@@ -7910,7 +7912,7 @@
       <c r="AE48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF48" s="2" t="s">
+      <c r="AF48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG48" s="2" t="s">
@@ -7967,7 +7969,7 @@
         <v>160</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>24</v>
@@ -8032,7 +8034,7 @@
       <c r="AE49" s="2">
         <v>-12.5</v>
       </c>
-      <c r="AF49" s="2" t="s">
+      <c r="AF49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG49" s="2" t="s">
@@ -8089,7 +8091,7 @@
         <v>161</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>24</v>
@@ -8154,7 +8156,7 @@
       <c r="AE50" s="2">
         <v>-12.6</v>
       </c>
-      <c r="AF50" s="2" t="s">
+      <c r="AF50" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG50" s="2" t="s">
@@ -8211,7 +8213,7 @@
         <v>162</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>24</v>
@@ -8276,7 +8278,7 @@
       <c r="AE51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF51" s="2" t="s">
+      <c r="AF51" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG51" s="2" t="s">
@@ -8333,7 +8335,7 @@
         <v>163</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>24</v>
@@ -8398,7 +8400,7 @@
       <c r="AE52" s="2">
         <v>-12.9</v>
       </c>
-      <c r="AF52" s="2">
+      <c r="AF52" s="5">
         <v>-9.6999999999999993</v>
       </c>
       <c r="AG52" s="2" t="s">
@@ -8455,7 +8457,7 @@
         <v>164</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>24</v>
@@ -8520,7 +8522,7 @@
       <c r="AE53" s="2">
         <v>-12.7</v>
       </c>
-      <c r="AF53" s="2" t="s">
+      <c r="AF53" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG53" s="2" t="s">
@@ -8577,7 +8579,7 @@
         <v>165</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>24</v>
@@ -8642,7 +8644,7 @@
       <c r="AE54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF54" s="2" t="s">
+      <c r="AF54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG54" s="2" t="s">
@@ -8699,7 +8701,7 @@
         <v>154</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>24</v>
@@ -8764,8 +8766,8 @@
       <c r="AE55" s="2">
         <v>-12.6</v>
       </c>
-      <c r="AF55" s="2" t="s">
-        <v>186</v>
+      <c r="AF55" s="5">
+        <v>-11.6</v>
       </c>
       <c r="AG55" s="2" t="s">
         <v>7</v>
@@ -8821,7 +8823,7 @@
         <v>166</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>24</v>
@@ -8886,7 +8888,7 @@
       <c r="AE56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF56" s="2" t="s">
+      <c r="AF56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG56" s="2" t="s">
@@ -8943,7 +8945,7 @@
         <v>8558</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>69</v>
@@ -9008,7 +9010,7 @@
       <c r="AE57" s="2">
         <v>-36.799999999999997</v>
       </c>
-      <c r="AF57" s="2">
+      <c r="AF57" s="5">
         <v>-35.299999999999997</v>
       </c>
       <c r="AG57" s="2">
@@ -9065,7 +9067,7 @@
         <v>8428</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>69</v>
@@ -9130,7 +9132,7 @@
       <c r="AE58" s="2">
         <v>-36.4</v>
       </c>
-      <c r="AF58" s="2">
+      <c r="AF58" s="5">
         <v>-34.9</v>
       </c>
       <c r="AG58" s="2">
@@ -9187,7 +9189,7 @@
         <v>8282</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>69</v>
@@ -9252,7 +9254,7 @@
       <c r="AE59" s="2">
         <v>-38.299999999999997</v>
       </c>
-      <c r="AF59" s="2">
+      <c r="AF59" s="5">
         <v>-35.9</v>
       </c>
       <c r="AG59" s="2">
@@ -9309,7 +9311,7 @@
         <v>8402</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>69</v>
@@ -9374,7 +9376,7 @@
       <c r="AE60" s="2">
         <v>-38.1</v>
       </c>
-      <c r="AF60" s="2">
+      <c r="AF60" s="5">
         <v>-36.799999999999997</v>
       </c>
       <c r="AG60" s="2">
@@ -9431,7 +9433,7 @@
         <v>8539</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>69</v>
@@ -9496,7 +9498,7 @@
       <c r="AE61" s="2">
         <v>-37.200000000000003</v>
       </c>
-      <c r="AF61" s="2">
+      <c r="AF61" s="5">
         <v>-36.1</v>
       </c>
       <c r="AG61" s="2">
@@ -9532,7 +9534,7 @@
         <v>99</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>48</v>
@@ -9553,7 +9555,7 @@
         <v>7</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>7</v>
@@ -9618,7 +9620,7 @@
       <c r="AE62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF62" s="2" t="s">
+      <c r="AF62" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG62" s="2" t="s">
@@ -9654,7 +9656,7 @@
         <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>48</v>
@@ -9669,13 +9671,13 @@
         <v>7</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>7</v>
@@ -9740,7 +9742,7 @@
       <c r="AE63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF63" s="2" t="s">
+      <c r="AF63" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG63" s="2" t="s">
@@ -9797,7 +9799,7 @@
         <v>7</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>7</v>
@@ -9862,7 +9864,7 @@
       <c r="AE64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF64" s="2" t="s">
+      <c r="AF64" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG64" s="2" t="s">
@@ -9919,7 +9921,7 @@
         <v>7</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>7</v>
@@ -9984,7 +9986,7 @@
       <c r="AE65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF65" s="2" t="s">
+      <c r="AF65" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG65" s="2" t="s">
@@ -10041,7 +10043,7 @@
         <v>7</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>7</v>
@@ -10106,7 +10108,7 @@
       <c r="AE66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF66" s="2" t="s">
+      <c r="AF66" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG66" s="2" t="s">
@@ -10163,7 +10165,7 @@
         <v>7</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>7</v>
@@ -10228,7 +10230,7 @@
       <c r="AE67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF67" s="2" t="s">
+      <c r="AF67" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG67" s="2" t="s">
@@ -10285,7 +10287,7 @@
         <v>7</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>7</v>
@@ -10350,7 +10352,7 @@
       <c r="AE68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF68" s="2" t="s">
+      <c r="AF68" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG68" s="2" t="s">
@@ -10407,7 +10409,7 @@
         <v>7</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>7</v>
@@ -10472,7 +10474,7 @@
       <c r="AE69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF69" s="2" t="s">
+      <c r="AF69" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG69" s="2" t="s">
@@ -10529,7 +10531,7 @@
         <v>7</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>7</v>
@@ -10594,7 +10596,7 @@
       <c r="AE70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF70" s="2" t="s">
+      <c r="AF70" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG70" s="2" t="s">
@@ -10651,7 +10653,7 @@
         <v>7</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>7</v>
@@ -10716,7 +10718,7 @@
       <c r="AE71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF71" s="2" t="s">
+      <c r="AF71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG71" s="2" t="s">
@@ -10773,7 +10775,7 @@
         <v>53</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>7</v>
@@ -10838,7 +10840,7 @@
       <c r="AE72" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF72" s="2" t="s">
+      <c r="AF72" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG72" s="2" t="s">
@@ -10895,7 +10897,7 @@
         <v>54</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>7</v>
@@ -10960,7 +10962,7 @@
       <c r="AE73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF73" s="2" t="s">
+      <c r="AF73" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG73" s="2" t="s">
@@ -11017,7 +11019,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>7</v>
@@ -11082,7 +11084,7 @@
       <c r="AE74" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF74" s="2" t="s">
+      <c r="AF74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG74" s="2" t="s">
@@ -11139,7 +11141,7 @@
         <v>8</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>7</v>
@@ -11204,7 +11206,7 @@
       <c r="AE75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF75" s="2" t="s">
+      <c r="AF75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG75" s="2" t="s">
@@ -11261,7 +11263,7 @@
         <v>7</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>7</v>
@@ -11326,7 +11328,7 @@
       <c r="AE76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF76" s="2" t="s">
+      <c r="AF76" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG76" s="2" t="s">
@@ -11383,7 +11385,7 @@
         <v>7</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>7</v>
@@ -11448,7 +11450,7 @@
       <c r="AE77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF77" s="2" t="s">
+      <c r="AF77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG77" s="2" t="s">
@@ -11505,7 +11507,7 @@
         <v>7</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>7</v>
@@ -11570,7 +11572,7 @@
       <c r="AE78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF78" s="2" t="s">
+      <c r="AF78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG78" s="2" t="s">
@@ -11627,7 +11629,7 @@
         <v>7</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>7</v>
@@ -11692,7 +11694,7 @@
       <c r="AE79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF79" s="2" t="s">
+      <c r="AF79" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG79" s="2" t="s">
@@ -11749,7 +11751,7 @@
         <v>7</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>7</v>
@@ -11814,7 +11816,7 @@
       <c r="AE80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF80" s="2" t="s">
+      <c r="AF80" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG80" s="2" t="s">
@@ -11871,7 +11873,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>7</v>
@@ -11936,7 +11938,7 @@
       <c r="AE81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF81" s="2" t="s">
+      <c r="AF81" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG81" s="2" t="s">
@@ -11993,7 +11995,7 @@
         <v>29</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>7</v>
@@ -12058,7 +12060,7 @@
       <c r="AE82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF82" s="2" t="s">
+      <c r="AF82" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG82" s="2" t="s">
@@ -12115,7 +12117,7 @@
         <v>30</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>7</v>
@@ -12180,7 +12182,7 @@
       <c r="AE83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF83" s="2" t="s">
+      <c r="AF83" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG83" s="2" t="s">
@@ -12237,7 +12239,7 @@
         <v>7</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>7</v>
@@ -12302,7 +12304,7 @@
       <c r="AE84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF84" s="2" t="s">
+      <c r="AF84" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG84" s="2" t="s">
@@ -12359,7 +12361,7 @@
         <v>7</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>7</v>
@@ -12424,7 +12426,7 @@
       <c r="AE85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF85" s="2" t="s">
+      <c r="AF85" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG85" s="2" t="s">
@@ -12481,7 +12483,7 @@
         <v>7</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>7</v>
@@ -12546,7 +12548,7 @@
       <c r="AE86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF86" s="2" t="s">
+      <c r="AF86" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG86" s="2" t="s">
@@ -12603,7 +12605,7 @@
         <v>167</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>24</v>
@@ -12668,7 +12670,7 @@
       <c r="AE87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF87" s="2" t="s">
+      <c r="AF87" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG87" s="2" t="s">
@@ -12725,7 +12727,7 @@
         <v>168</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>24</v>
@@ -12790,7 +12792,7 @@
       <c r="AE88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF88" s="2" t="s">
+      <c r="AF88" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG88" s="2" t="s">
@@ -12847,7 +12849,7 @@
         <v>169</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>24</v>
@@ -12912,7 +12914,7 @@
       <c r="AE89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF89" s="2" t="s">
+      <c r="AF89" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG89" s="2" t="s">
@@ -12942,7 +12944,7 @@
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>7</v>
@@ -13034,7 +13036,7 @@
       <c r="AE90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF90" s="2" t="s">
+      <c r="AF90" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG90" s="2" t="s">
@@ -13064,7 +13066,7 @@
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>7</v>
@@ -13156,7 +13158,7 @@
       <c r="AE91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF91" s="2" t="s">
+      <c r="AF91" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG91" s="2" t="s">
@@ -13213,7 +13215,7 @@
         <v>103</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>69</v>
@@ -13278,7 +13280,7 @@
       <c r="AE92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF92" s="2" t="s">
+      <c r="AF92" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG92" s="2" t="s">
@@ -13335,7 +13337,7 @@
         <v>104</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>69</v>
@@ -13400,7 +13402,7 @@
       <c r="AE93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF93" s="2" t="s">
+      <c r="AF93" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG93" s="2" t="s">
@@ -13457,7 +13459,7 @@
         <v>105</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>69</v>
@@ -13522,7 +13524,7 @@
       <c r="AE94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF94" s="2" t="s">
+      <c r="AF94" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG94" s="2" t="s">
@@ -13579,7 +13581,7 @@
         <v>106</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>69</v>
@@ -13644,7 +13646,7 @@
       <c r="AE95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF95" s="2" t="s">
+      <c r="AF95" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG95" s="2" t="s">
@@ -13701,7 +13703,7 @@
         <v>107</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>69</v>
@@ -13766,7 +13768,7 @@
       <c r="AE96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF96" s="2" t="s">
+      <c r="AF96" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG96" s="2" t="s">
@@ -13823,7 +13825,7 @@
         <v>108</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>69</v>
@@ -13888,7 +13890,7 @@
       <c r="AE97" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF97" s="2" t="s">
+      <c r="AF97" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG97" s="2" t="s">
@@ -13945,7 +13947,7 @@
         <v>109</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>69</v>
@@ -14010,7 +14012,7 @@
       <c r="AE98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF98" s="2" t="s">
+      <c r="AF98" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG98" s="2" t="s">
@@ -14067,7 +14069,7 @@
         <v>110</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>69</v>
@@ -14132,7 +14134,7 @@
       <c r="AE99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF99" s="2" t="s">
+      <c r="AF99" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG99" s="2" t="s">
@@ -14189,7 +14191,7 @@
         <v>111</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>69</v>
@@ -14254,7 +14256,7 @@
       <c r="AE100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF100" s="2" t="s">
+      <c r="AF100" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG100" s="2" t="s">
@@ -14311,7 +14313,7 @@
         <v>112</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>69</v>
@@ -14376,7 +14378,7 @@
       <c r="AE101" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF101" s="2" t="s">
+      <c r="AF101" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG101" s="2" t="s">
@@ -14433,7 +14435,7 @@
         <v>176</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>69</v>
@@ -14498,7 +14500,7 @@
       <c r="AE102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF102" s="2" t="s">
+      <c r="AF102" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG102" s="2" t="s">
@@ -14555,7 +14557,7 @@
         <v>177</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>69</v>
@@ -14620,7 +14622,7 @@
       <c r="AE103" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF103" s="2" t="s">
+      <c r="AF103" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG103" s="2" t="s">
@@ -14677,7 +14679,7 @@
         <v>178</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>69</v>
@@ -14742,7 +14744,7 @@
       <c r="AE104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF104" s="2" t="s">
+      <c r="AF104" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG104" s="2" t="s">
@@ -14799,7 +14801,7 @@
         <v>179</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>69</v>
@@ -14864,7 +14866,7 @@
       <c r="AE105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF105" s="2" t="s">
+      <c r="AF105" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG105" s="2" t="s">
@@ -14921,7 +14923,7 @@
         <v>180</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>69</v>
@@ -14986,7 +14988,7 @@
       <c r="AE106" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF106" s="2" t="s">
+      <c r="AF106" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG106" s="2" t="s">
@@ -15043,7 +15045,7 @@
         <v>181</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>69</v>
@@ -15108,7 +15110,7 @@
       <c r="AE107" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF107" s="2" t="s">
+      <c r="AF107" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG107" s="2" t="s">
@@ -15165,7 +15167,7 @@
         <v>182</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>69</v>
@@ -15230,7 +15232,7 @@
       <c r="AE108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF108" s="2" t="s">
+      <c r="AF108" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG108" s="2" t="s">
@@ -15287,7 +15289,7 @@
         <v>184</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>69</v>
@@ -15352,7 +15354,7 @@
       <c r="AE109" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF109" s="2" t="s">
+      <c r="AF109" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG109" s="2" t="s">
@@ -15409,7 +15411,7 @@
         <v>183</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>69</v>
@@ -15474,7 +15476,7 @@
       <c r="AE110" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF110" s="2" t="s">
+      <c r="AF110" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG110" s="2" t="s">
@@ -15531,7 +15533,7 @@
         <v>185</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>69</v>
@@ -15596,7 +15598,7 @@
       <c r="AE111" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF111" s="2" t="s">
+      <c r="AF111" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG111" s="2" t="s">
